--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="120" windowWidth="25080" windowHeight="13940"/>
+    <workbookView xWindow="-3980" yWindow="-21560" windowWidth="33820" windowHeight="18340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="USA jet fuel" sheetId="15" r:id="rId7"/>
     <sheet name="BSoFPtiT" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>Source:</t>
   </si>
@@ -94,9 +94,6 @@
     <t>geothermal (does not use fuel)</t>
   </si>
   <si>
-    <t>lignite</t>
-  </si>
-  <si>
     <t>BSoFPtiT BAU Share of Fuel Price that is Tax</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>Canada's Energy Future: 2017</t>
   </si>
   <si>
-    <t>Fuel price data was not available for 2016 Energy Futures</t>
-  </si>
-  <si>
     <t xml:space="preserve">End use prices </t>
   </si>
   <si>
@@ -809,6 +803,51 @@
   </si>
   <si>
     <t>Prices vary considerably by province/territory.  We used a population-weighted average to obtain a national value.</t>
+  </si>
+  <si>
+    <t>coal to gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the EPS works in inflation adjusted units and Canada's fuel tax and carbon tax are not adjusted to inflation, we assumed a 2% annual inflation rate and adjusted the tax values accordingly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada inflation rate </t>
+  </si>
+  <si>
+    <t>Bank of Canada</t>
+  </si>
+  <si>
+    <t>https://www.bankofcanada.ca/core-functions/monetary-policy/inflation/</t>
+  </si>
+  <si>
+    <t>Fuel price data was not available for 2016 Energy Futures so used 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because fuel tax is not indexed to inflation, we have adjusted for inflation using as assumed 2% inflation rate here: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel tax, weighted national average </t>
+  </si>
+  <si>
+    <t>Petrol (c/L)</t>
+  </si>
+  <si>
+    <t>Diesel (c/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon tax, weighted national average </t>
+  </si>
+  <si>
+    <t>Natural Gas (c/L)</t>
+  </si>
+  <si>
+    <t>Jet Fuel (c/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal ($/tonne) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2% estimated inflation rate </t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1224,6 +1263,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,7 +1459,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1440,8 +1479,9 @@
     <xf numFmtId="15" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="143">
     <cellStyle name="Body: normal cell" xfId="5"/>
     <cellStyle name="Body: normal cell 2" xfId="11"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
@@ -1571,6 +1611,7 @@
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
     <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13"/>
     <cellStyle name="Footnotes: top row" xfId="7"/>
@@ -1586,39 +1627,6 @@
     <cellStyle name="Table title 2" xfId="14"/>
   </cellStyles>
   <dxfs count="77">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2922,106 +2930,142 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table14" displayName="Table14" ref="A23:AK26" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table14" displayName="Table14" ref="A23:AK26" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
   <tableColumns count="37">
-    <tableColumn id="1" name="_" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" name="2005" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="3" name="2006" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="4" name="2007" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="5" name="2008" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="6" name="2009" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="7" name="2010" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="8" name="2011" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="9" name="2012" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="10" name="2013" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="11" name="2014" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="12" name="2015" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="1" name="_" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" name="2005" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" name="2006" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" name="2007" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="2008" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" name="2009" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" name="2010" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" name="2011" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="9" name="2012" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="10" name="2013" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="11" name="2014" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="12" name="2015" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>L25/K25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="2016" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="13" name="2016" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>M25/L25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="2017" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="14" name="2017" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>N25/M25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="2018" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="15" name="2018" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>O25/N25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="2019" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="16" name="2019" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>P25/O25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="2020" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="17" name="2020" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>Q25/P25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="2021" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="18" name="2021" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>R25/Q25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="2022" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="19" name="2022" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>S25/R25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="2023" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="20" name="2023" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>T25/S25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="2024" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="21" name="2024" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>U25/T25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="2025" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="22" name="2025" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>V25/U25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="2026" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="23" name="2026" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>W25/V25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="2027" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="24" name="2027" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>X25/W25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="2028" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="25" name="2028" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>Y25/X25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="2029" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="26" name="2029" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>Z25/Y25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="2030" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="27" name="2030" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>AA25/Z25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" name="2031" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="28" name="2031" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>AB25/AA25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="2032" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="29" name="2032" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>AC25/AB25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="2033" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="30" name="2033" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>AD25/AC25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="2034" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="31" name="2034" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AE25/AD25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="2035" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="32" name="2035" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AF25/AE25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="2036" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="33" name="2036" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AG25/AF25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" name="2037" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="34" name="2037" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AH25/AG25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" name="2038" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="35" name="2038" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AI25/AH25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="2039" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="36" name="2039" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AJ25/AI25</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" name="2040" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="37" name="2040" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AK25/AJ25</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -3105,6 +3149,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3140,6 +3201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3316,39 +3394,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" customWidth="1"/>
-    <col min="2" max="2" width="79.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.5" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="B5" s="2">
         <v>2017</v>
       </c>
@@ -3357,281 +3438,298 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="B11" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="24"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
-      <c r="B23" s="61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
+      <c r="B29" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="B30" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="B31" s="41">
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="B32" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="B33" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
+      <c r="B35" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="B36" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="B38" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="B39" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="B40" s="26"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
+      <c r="B41" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="B42" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="B44" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="17"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="15"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1">
       <c r="A67" s="17"/>
     </row>
   </sheetData>
@@ -3653,40 +3751,42 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="AM60" sqref="AM60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="5" customWidth="1"/>
-    <col min="4" max="7" width="10.81640625" style="5"/>
+    <col min="1" max="1" width="17.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="5" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="5"/>
     <col min="8" max="8" width="14" style="5" customWidth="1"/>
     <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="5"/>
-    <col min="12" max="12" width="9.36328125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.6328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="34.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.81640625" style="5"/>
+    <col min="10" max="10" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="34.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>2015</v>
@@ -3698,34 +3798,34 @@
         <v>2017</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>0.05</v>
@@ -3737,7 +3837,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="5">
         <f>D5</f>
@@ -3753,9 +3853,9 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -3776,9 +3876,9 @@
       </c>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.05</v>
@@ -3799,9 +3899,9 @@
       </c>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <v>0.05</v>
@@ -3822,9 +3922,9 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>0.13</v>
@@ -3845,9 +3945,9 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>0.13</v>
@@ -3871,9 +3971,9 @@
       </c>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>0.15</v>
@@ -3894,9 +3994,9 @@
       </c>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5">
         <v>0.15</v>
@@ -3917,9 +4017,9 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5">
         <v>0.15</v>
@@ -3940,9 +4040,9 @@
       </c>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5">
         <v>0.14000000000000001</v>
@@ -3963,9 +4063,9 @@
       </c>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5">
         <v>0.05</v>
@@ -3986,9 +4086,9 @@
       </c>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5">
         <v>0.05</v>
@@ -4009,9 +4109,9 @@
       </c>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5">
         <v>0.05</v>
@@ -4032,58 +4132,58 @@
       </c>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="L18" s="8"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="I21" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5">
         <v>14.5</v>
@@ -4103,9 +4203,9 @@
         <v>15.894761282352489</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="5">
         <v>13</v>
@@ -4118,9 +4218,9 @@
       </c>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5">
         <v>15</v>
@@ -4132,9 +4232,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5">
         <v>14</v>
@@ -4146,9 +4246,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5">
         <v>14.7</v>
@@ -4160,9 +4260,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5">
         <v>19.2</v>
@@ -4174,9 +4274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="5">
         <v>33</v>
@@ -4188,9 +4288,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5">
         <v>15.5</v>
@@ -4202,9 +4302,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5">
         <v>15.5</v>
@@ -4216,9 +4316,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="5">
         <v>13.1</v>
@@ -4230,9 +4330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5">
         <v>10.7</v>
@@ -4244,9 +4344,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5">
         <v>10.7</v>
@@ -4258,9 +4358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5">
         <v>6.2</v>
@@ -4272,65 +4372,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="B36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="G37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I38" s="5">
         <f>SUMPRODUCT(B39:B51,L5:L17)</f>
@@ -4353,9 +4453,9 @@
         <v>8.1747016925596867</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="11">
         <v>6.67</v>
@@ -4373,47 +4473,47 @@
         <v>7.83</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="5">
         <v>62.31</v>
       </c>
       <c r="M39" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="11">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -4437,35 +4537,35 @@
         <v>1.2986</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4490,174 +4590,174 @@
         <v>6.2950113141534629</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="5">
-        <v>0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="5">
-        <v>0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -4677,9 +4777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37">
       <c r="A53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="11">
         <v>4.49</v>
@@ -4691,16 +4791,16 @@
         <v>3.08</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53" s="11">
         <v>0</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -4708,21 +4808,1298 @@
       <c r="F54" s="11"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37">
       <c r="A55" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="15"/>
+    <row r="58" spans="1:37">
+      <c r="A58" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="A60" s="15"/>
+      <c r="B60" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2020</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2023</v>
+      </c>
+      <c r="K60" s="5">
+        <v>2024</v>
+      </c>
+      <c r="L60" s="5">
+        <v>2025</v>
+      </c>
+      <c r="M60" s="5">
+        <v>2026</v>
+      </c>
+      <c r="N60" s="5">
+        <v>2027</v>
+      </c>
+      <c r="O60" s="5">
+        <v>2028</v>
+      </c>
+      <c r="P60" s="5">
+        <v>2029</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R60" s="5">
+        <v>2031</v>
+      </c>
+      <c r="S60" s="5">
+        <v>2032</v>
+      </c>
+      <c r="T60" s="5">
+        <v>2033</v>
+      </c>
+      <c r="U60" s="5">
+        <v>2034</v>
+      </c>
+      <c r="V60" s="5">
+        <v>2035</v>
+      </c>
+      <c r="W60" s="5">
+        <v>2036</v>
+      </c>
+      <c r="X60" s="5">
+        <v>2037</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>2038</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>2039</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>2040</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AF60" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AH60" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AI60" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AJ60" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AK60" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="5">
+        <f>I23</f>
+        <v>15.772603861617114</v>
+      </c>
+      <c r="C61" s="5">
+        <f>B61-(0.02*B61)</f>
+        <v>15.457151784384772</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" ref="D61:AK61" si="1">C61-(0.02*C61)</f>
+        <v>15.148008748697077</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="1"/>
+        <v>14.845048573723135</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="1"/>
+        <v>14.548147602248672</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="1"/>
+        <v>14.257184650203699</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="1"/>
+        <v>13.972040957199626</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="1"/>
+        <v>13.692600138055633</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="1"/>
+        <v>13.418748135294521</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="1"/>
+        <v>13.150373172588631</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="1"/>
+        <v>12.887365709136859</v>
+      </c>
+      <c r="M61" s="5">
+        <f t="shared" si="1"/>
+        <v>12.629618394954122</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="1"/>
+        <v>12.37702602705504</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="1"/>
+        <v>12.129485506513939</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="1"/>
+        <v>11.88689579638366</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="1"/>
+        <v>11.649157880455988</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="1"/>
+        <v>11.416174722846868</v>
+      </c>
+      <c r="S61" s="5">
+        <f t="shared" si="1"/>
+        <v>11.187851228389931</v>
+      </c>
+      <c r="T61" s="5">
+        <f t="shared" si="1"/>
+        <v>10.964094203822132</v>
+      </c>
+      <c r="U61" s="5">
+        <f t="shared" si="1"/>
+        <v>10.744812319745689</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="1"/>
+        <v>10.529916073350776</v>
+      </c>
+      <c r="W61" s="5">
+        <f t="shared" si="1"/>
+        <v>10.31931775188376</v>
+      </c>
+      <c r="X61" s="5">
+        <f t="shared" si="1"/>
+        <v>10.112931396846085</v>
+      </c>
+      <c r="Y61" s="5">
+        <f t="shared" si="1"/>
+        <v>9.910672768909162</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="1"/>
+        <v>9.712459313530978</v>
+      </c>
+      <c r="AA61" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5182101272603585</v>
+      </c>
+      <c r="AB61" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3278459247151506</v>
+      </c>
+      <c r="AC61" s="5">
+        <f t="shared" si="1"/>
+        <v>9.1412890062208483</v>
+      </c>
+      <c r="AD61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.9584632260964305</v>
+      </c>
+      <c r="AE61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7792939615745027</v>
+      </c>
+      <c r="AF61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6037080823430134</v>
+      </c>
+      <c r="AG61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.4316339206961537</v>
+      </c>
+      <c r="AH61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.2630012422822308</v>
+      </c>
+      <c r="AI61" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0977412174365853</v>
+      </c>
+      <c r="AJ61" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9357863930878532</v>
+      </c>
+      <c r="AK61" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7770706652260957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="A62" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="5">
+        <f>J23</f>
+        <v>15.894761282352489</v>
+      </c>
+      <c r="C62" s="5">
+        <f>B62-(0.02*B62)</f>
+        <v>15.576866056705439</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" ref="D62:AK62" si="2">C62-(0.02*C62)</f>
+        <v>15.26532873557133</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="2"/>
+        <v>14.960022160859904</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
+        <v>14.660821717642705</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="2"/>
+        <v>14.367605283289851</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="2"/>
+        <v>14.080253177624055</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="2"/>
+        <v>13.798648114071574</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="2"/>
+        <v>13.522675151790143</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" si="2"/>
+        <v>13.25222164875434</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="2"/>
+        <v>12.987177215779253</v>
+      </c>
+      <c r="M62" s="5">
+        <f t="shared" si="2"/>
+        <v>12.727433671463668</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="2"/>
+        <v>12.472884998034395</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="2"/>
+        <v>12.223427298073707</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.978958752112232</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.739379577069988</v>
+      </c>
+      <c r="R62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.504591985528588</v>
+      </c>
+      <c r="S62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.274500145818017</v>
+      </c>
+      <c r="T62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.049010142901656</v>
+      </c>
+      <c r="U62" s="5">
+        <f t="shared" si="2"/>
+        <v>10.828029940043622</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="2"/>
+        <v>10.611469341242749</v>
+      </c>
+      <c r="W62" s="5">
+        <f t="shared" si="2"/>
+        <v>10.399239954417894</v>
+      </c>
+      <c r="X62" s="5">
+        <f t="shared" si="2"/>
+        <v>10.191255155329536</v>
+      </c>
+      <c r="Y62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9874300522229458</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.7876814511784875</v>
+      </c>
+      <c r="AA62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5919278221549185</v>
+      </c>
+      <c r="AB62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.40008926571182</v>
+      </c>
+      <c r="AC62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.2120874803975834</v>
+      </c>
+      <c r="AD62" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0278457307896325</v>
+      </c>
+      <c r="AE62" s="5">
+        <f t="shared" si="2"/>
+        <v>8.8472888161738403</v>
+      </c>
+      <c r="AF62" s="5">
+        <f t="shared" si="2"/>
+        <v>8.6703430398503638</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="2"/>
+        <v>8.4969361790533569</v>
+      </c>
+      <c r="AH62" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3269974554722896</v>
+      </c>
+      <c r="AI62" s="5">
+        <f t="shared" si="2"/>
+        <v>8.1604575063628442</v>
+      </c>
+      <c r="AJ62" s="5">
+        <f t="shared" si="2"/>
+        <v>7.9972483562355876</v>
+      </c>
+      <c r="AK62" s="5">
+        <f t="shared" si="2"/>
+        <v>7.8373033891108754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37">
+      <c r="A65" s="15"/>
+      <c r="B65" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2020</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I65" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J65" s="5">
+        <v>2023</v>
+      </c>
+      <c r="K65" s="5">
+        <v>2024</v>
+      </c>
+      <c r="L65" s="5">
+        <v>2025</v>
+      </c>
+      <c r="M65" s="5">
+        <v>2026</v>
+      </c>
+      <c r="N65" s="5">
+        <v>2027</v>
+      </c>
+      <c r="O65" s="5">
+        <v>2028</v>
+      </c>
+      <c r="P65" s="5">
+        <v>2029</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>2030</v>
+      </c>
+      <c r="R65" s="5">
+        <v>2031</v>
+      </c>
+      <c r="S65" s="5">
+        <v>2032</v>
+      </c>
+      <c r="T65" s="5">
+        <v>2033</v>
+      </c>
+      <c r="U65" s="5">
+        <v>2034</v>
+      </c>
+      <c r="V65" s="5">
+        <v>2035</v>
+      </c>
+      <c r="W65" s="5">
+        <v>2036</v>
+      </c>
+      <c r="X65" s="5">
+        <v>2037</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>2038</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>2039</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>2040</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AD65" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AE65" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AF65" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AH65" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AI65" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AJ65" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AK65" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37">
+      <c r="A66" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="5">
+        <f>I38</f>
+        <v>0.87506436028523682</v>
+      </c>
+      <c r="C66" s="5">
+        <f>B66-(0.02*B66)</f>
+        <v>0.85756307307953206</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" ref="D66:AK66" si="3">C66-(0.02*C66)</f>
+        <v>0.84041181161794143</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.8236035753855826</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.80713150387787091</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.79098887380031346</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77516909632430719</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.75966571439782105</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.7444724001098646</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.72958295210766733</v>
+      </c>
+      <c r="L66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.71499129306551401</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.70069146720420372</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.68667763786011959</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.67294408510291726</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65948520340085892</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64629549933284169</v>
+      </c>
+      <c r="R66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.63336958934618481</v>
+      </c>
+      <c r="S66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.62070219755926115</v>
+      </c>
+      <c r="T66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.60828815360807598</v>
+      </c>
+      <c r="U66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59612239053591443</v>
+      </c>
+      <c r="V66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58419994272519615</v>
+      </c>
+      <c r="W66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57251594387069227</v>
+      </c>
+      <c r="X66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.56106562499327839</v>
+      </c>
+      <c r="Y66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.54984431249341281</v>
+      </c>
+      <c r="Z66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.53884742624354454</v>
+      </c>
+      <c r="AA66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.52807047771867366</v>
+      </c>
+      <c r="AB66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5175090681643002</v>
+      </c>
+      <c r="AC66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.50715888680101417</v>
+      </c>
+      <c r="AD66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.49701570906499387</v>
+      </c>
+      <c r="AE66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.487075394883694</v>
+      </c>
+      <c r="AF66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.47733388698602014</v>
+      </c>
+      <c r="AG66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.46778720924629974</v>
+      </c>
+      <c r="AH66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.45843146506137372</v>
+      </c>
+      <c r="AI66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.44926283576014625</v>
+      </c>
+      <c r="AJ66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.4402775790449433</v>
+      </c>
+      <c r="AK66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43147202746404445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="A67" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="5">
+        <f>J38</f>
+        <v>1.0062584172995153</v>
+      </c>
+      <c r="C67" s="5">
+        <f>B67-(0.02*B67)</f>
+        <v>0.98613324895352494</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:AK67" si="4">C67-(0.02*C67)</f>
+        <v>0.96641058397445445</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94708237229496539</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.92814072484906607</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.9095779103520848</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89138635214504314</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.87355862510214233</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85608745260009944</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.83896570354809741</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.82218638947713552</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80574266168759279</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78962780845384095</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.77383525228476413</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.75835854723906881</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.74319137629428744</v>
+      </c>
+      <c r="R67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.72832754876840167</v>
+      </c>
+      <c r="S67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.71376099779303359</v>
+      </c>
+      <c r="T67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.69948577783717292</v>
+      </c>
+      <c r="U67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.68549606228042947</v>
+      </c>
+      <c r="V67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67178614103482093</v>
+      </c>
+      <c r="W67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.65835041821412454</v>
+      </c>
+      <c r="X67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.64518340984984202</v>
+      </c>
+      <c r="Y67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.63227974165284517</v>
+      </c>
+      <c r="Z67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.61963414681978823</v>
+      </c>
+      <c r="AA67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.60724146388339251</v>
+      </c>
+      <c r="AB67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.59509663460572471</v>
+      </c>
+      <c r="AC67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.58319470191361023</v>
+      </c>
+      <c r="AD67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.57153080787533805</v>
+      </c>
+      <c r="AE67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.56010019171783132</v>
+      </c>
+      <c r="AF67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.54889818788347466</v>
+      </c>
+      <c r="AG67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.5379202241258052</v>
+      </c>
+      <c r="AH67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.52716181964328912</v>
+      </c>
+      <c r="AI67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.51661858325042331</v>
+      </c>
+      <c r="AJ67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.50628621158541487</v>
+      </c>
+      <c r="AK67" s="5">
+        <f t="shared" si="4"/>
+        <v>0.49616048735370655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37">
+      <c r="A68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="5">
+        <f>K38</f>
+        <v>7.4780612498138684E-4</v>
+      </c>
+      <c r="C68" s="5">
+        <f>B68-(0.02*B68)</f>
+        <v>7.3285000248175911E-4</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" ref="D68:AK68" si="5">C68-(0.02*C68)</f>
+        <v>7.1819300243212395E-4</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="5"/>
+        <v>7.0382914238348142E-4</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.8975255953581175E-4</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.7595750834509554E-4</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.624383581781936E-4</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.491895910146297E-4</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.3620579919433716E-4</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.234816832104504E-4</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="5"/>
+        <v>6.1101204954624143E-4</v>
+      </c>
+      <c r="M68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.9879180855531655E-4</v>
+      </c>
+      <c r="N68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.8681597238421023E-4</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.7507965293652607E-4</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.6357805987779556E-4</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.5230649868023959E-4</v>
+      </c>
+      <c r="R68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.4126036870663478E-4</v>
+      </c>
+      <c r="S68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3043516133250204E-4</v>
+      </c>
+      <c r="T68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.1982645810585201E-4</v>
+      </c>
+      <c r="U68" s="5">
+        <f t="shared" si="5"/>
+        <v>5.0942992894373491E-4</v>
+      </c>
+      <c r="V68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.9924133036486024E-4</v>
+      </c>
+      <c r="W68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.8925650375756299E-4</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.7947137368241171E-4</v>
+      </c>
+      <c r="Y68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.6988194620876348E-4</v>
+      </c>
+      <c r="Z68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.6048430728458823E-4</v>
+      </c>
+      <c r="AA68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.5127462113889644E-4</v>
+      </c>
+      <c r="AB68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4224912871611852E-4</v>
+      </c>
+      <c r="AC68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.3340414614179617E-4</v>
+      </c>
+      <c r="AD68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.2473606321896023E-4</v>
+      </c>
+      <c r="AE68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.16241341954581E-4</v>
+      </c>
+      <c r="AF68" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0791651511548936E-4</v>
+      </c>
+      <c r="AG68" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9975818481317957E-4</v>
+      </c>
+      <c r="AH68" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9176302111691599E-4</v>
+      </c>
+      <c r="AI68" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8392776069457769E-4</v>
+      </c>
+      <c r="AJ68" s="5">
+        <f t="shared" si="5"/>
+        <v>3.7624920548068612E-4</v>
+      </c>
+      <c r="AK68" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6872422137107242E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="A69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="28">
+        <f>L38</f>
+        <v>1.0272494664217997</v>
+      </c>
+      <c r="C69" s="5">
+        <f>B69-(0.02*B69)</f>
+        <v>1.0067044770933637</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" ref="D69:AK69" si="6">C69-(0.02*C69)</f>
+        <v>0.98657038755149651</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.96683897980046662</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9475022002044573</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.92855215620036813</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.90998111307636076</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.8917814908148336</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.87394586099853688</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.85646694377856614</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.8393376049029948</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.8225508528049349</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.80609983574883615</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.78997783903385943</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77417828225318219</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7586947166081186</v>
+      </c>
+      <c r="R69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.74352082227595628</v>
+      </c>
+      <c r="S69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.72865040583043716</v>
+      </c>
+      <c r="T69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.71407739771382839</v>
+      </c>
+      <c r="U69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.69979584975955178</v>
+      </c>
+      <c r="V69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.6857999327643608</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.67208393410907363</v>
+      </c>
+      <c r="X69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.65864225542689214</v>
+      </c>
+      <c r="Y69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.64546941031835425</v>
+      </c>
+      <c r="Z69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.63256002211198714</v>
+      </c>
+      <c r="AA69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.61990882166974737</v>
+      </c>
+      <c r="AB69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.60751064523635245</v>
+      </c>
+      <c r="AC69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.59536043233162539</v>
+      </c>
+      <c r="AD69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.58345322368499286</v>
+      </c>
+      <c r="AE69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.571784159211293</v>
+      </c>
+      <c r="AF69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.56034847602706717</v>
+      </c>
+      <c r="AG69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.54914150650652582</v>
+      </c>
+      <c r="AH69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.53815867637639525</v>
+      </c>
+      <c r="AI69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.52739550284886738</v>
+      </c>
+      <c r="AJ69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.51684759279189008</v>
+      </c>
+      <c r="AK69" s="5">
+        <f t="shared" si="6"/>
+        <v>0.50651064093605225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37">
+      <c r="A70" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="5">
+        <f>M43</f>
+        <v>6.2950113141534629</v>
+      </c>
+      <c r="C70" s="5">
+        <f>B70-(0.02*B70)</f>
+        <v>6.1691110878703936</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" ref="D70:AK70" si="7">C70-(0.02*C70)</f>
+        <v>6.0457288661129862</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.9248142887907269</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.806318003014912</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.6901916429546135</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5763878100955209</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.4648600538936103</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.355562852815738</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.2484515957594233</v>
+      </c>
+      <c r="L70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.143482563844235</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="7"/>
+        <v>5.04061291256735</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.9398006543160031</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.8410046412296834</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.74418454840509</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.6493008574369883</v>
+      </c>
+      <c r="R70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.5563148402882483</v>
+      </c>
+      <c r="S70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.4651885434824834</v>
+      </c>
+      <c r="T70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.3758847726128334</v>
+      </c>
+      <c r="U70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.2883670771605766</v>
+      </c>
+      <c r="V70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.2025997356173654</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.1185477409050177</v>
+      </c>
+      <c r="X70" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0361767860869175</v>
+      </c>
+      <c r="Y70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.9554532503651791</v>
+      </c>
+      <c r="Z70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.8763441853578757</v>
+      </c>
+      <c r="AA70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.7988173016507183</v>
+      </c>
+      <c r="AB70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.7228409556177038</v>
+      </c>
+      <c r="AC70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6483841365053498</v>
+      </c>
+      <c r="AD70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.5754164537752429</v>
+      </c>
+      <c r="AE70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.5039081246997381</v>
+      </c>
+      <c r="AF70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4338299622057433</v>
+      </c>
+      <c r="AG70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.3651533629616286</v>
+      </c>
+      <c r="AH70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.2978502957023959</v>
+      </c>
+      <c r="AI70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.2318932897883479</v>
+      </c>
+      <c r="AJ70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.167255423992581</v>
+      </c>
+      <c r="AK70" s="5">
+        <f t="shared" si="7"/>
+        <v>3.1039103155127292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4742,22 +6119,24 @@
   </sheetPr>
   <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.90625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="30" style="5" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="5" customWidth="1"/>
-    <col min="6" max="26" width="10.81640625" style="5"/>
-    <col min="27" max="27" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.81640625" style="5"/>
+    <col min="5" max="5" width="12.83203125" style="5" customWidth="1"/>
+    <col min="6" max="26" width="10.83203125" style="5"/>
+    <col min="27" max="27" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4870,9 +6249,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>57.5</v>
@@ -5016,9 +6395,9 @@
         <v>106.12931195397755</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="44">
         <v>3.27</v>
@@ -5139,9 +6518,9 @@
         <v>5.2130303030303011</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="44">
         <v>32.58</v>
@@ -5262,9 +6641,9 @@
         <v>49.772969696969653</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="46">
         <v>31.58</v>
@@ -5385,9 +6764,9 @@
         <v>46.552424242424252</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="9">
         <f>'USA jet fuel'!C4/$L$20</f>
@@ -5534,171 +6913,171 @@
         <v>19.36105104578283</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" ht="28">
       <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="E8" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="B9" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L20" s="43">
         <v>1.05506E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="5">
         <f>0.0373/1000</f>
         <v>3.7299999999999999E-5</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="5">
         <f>34.66/1000</f>
         <v>3.4659999999999996E-2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="5">
         <f>38.68/1000</f>
         <v>3.8679999999999999E-2</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="5">
         <f>34.7/1000</f>
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -5811,9 +7190,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="5">
         <f>B2</f>
@@ -5960,9 +7339,9 @@
         <v>106.12931195397755</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5">
         <f>B3*$H$21*100</f>
@@ -6109,9 +7488,9 @@
         <v>1.9444603030303022E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" ref="B29:AA29" si="8">B4*$H$22*100</f>
@@ -6258,9 +7637,9 @@
         <v>172.51311296969681</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5">
         <f>B5*$H$23*100</f>
@@ -6407,9 +7786,9 @@
         <v>180.06477696969699</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="5">
         <f>B6*$H$24*100</f>
@@ -6556,9 +7935,9 @@
         <v>1936.1051045782829</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37">
       <c r="A33" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1">
         <v>2015</v>
@@ -6669,765 +8048,765 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37">
       <c r="A34" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!B27-'Canada tax data'!$M$43)</f>
+        <f>'Canada tax data'!B70/('Canada fuel price projections'!B27-'Canada tax data'!B70)</f>
         <v>0.12293746128477231</v>
       </c>
       <c r="C34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!C27-'Canada tax data'!$M$43)</f>
-        <v>0.10561215517264648</v>
+        <f>'Canada tax data'!C70/('Canada fuel price projections'!C27-'Canada tax data'!C70)</f>
+        <v>0.1032817558925969</v>
       </c>
       <c r="D34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!D27-'Canada tax data'!$M$43)</f>
-        <v>7.6670265898698228E-2</v>
+        <f>'Canada tax data'!D70/('Canada fuel price projections'!D27-'Canada tax data'!D70)</f>
+        <v>7.3411236392149887E-2</v>
       </c>
       <c r="E34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!E27-'Canada tax data'!$M$43)</f>
-        <v>7.2347967340823938E-2</v>
+        <f>'Canada tax data'!E70/('Canada fuel price projections'!E27-'Canada tax data'!E70)</f>
+        <v>6.780484293046557E-2</v>
       </c>
       <c r="F34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!F27-'Canada tax data'!$M$43)</f>
-        <v>7.1353155075677507E-2</v>
+        <f>'Canada tax data'!F70/('Canada fuel price projections'!F27-'Canada tax data'!F70)</f>
+        <v>6.5451325354626597E-2</v>
       </c>
       <c r="G34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!G27-'Canada tax data'!$M$43)</f>
-        <v>7.0202529457572202E-2</v>
+        <f>'Canada tax data'!G70/('Canada fuel price projections'!G27-'Canada tax data'!G70)</f>
+        <v>6.3032372815073137E-2</v>
       </c>
       <c r="H34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!H27-'Canada tax data'!$M$43)</f>
-        <v>7.0162842343233736E-2</v>
+        <f>'Canada tax data'!H70/('Canada fuel price projections'!H27-'Canada tax data'!H70)</f>
+        <v>6.1659351150298115E-2</v>
       </c>
       <c r="I34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!I27-'Canada tax data'!$M$43)</f>
-        <v>7.0187803185585304E-2</v>
+        <f>'Canada tax data'!I70/('Canada fuel price projections'!I27-'Canada tax data'!I70)</f>
+        <v>6.0373012722867596E-2</v>
       </c>
       <c r="J34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!J27-'Canada tax data'!$M$43)</f>
-        <v>6.9969164019356114E-2</v>
+        <f>'Canada tax data'!J70/('Canada fuel price projections'!J27-'Canada tax data'!J70)</f>
+        <v>5.8912018958982189E-2</v>
       </c>
       <c r="K34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!K27-'Canada tax data'!$M$43)</f>
-        <v>7.0217892491130099E-2</v>
+        <f>'Canada tax data'!K70/('Canada fuel price projections'!K27-'Canada tax data'!K70)</f>
+        <v>5.7868461152548852E-2</v>
       </c>
       <c r="L34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!L27-'Canada tax data'!$M$43)</f>
-        <v>7.0204320912146526E-2</v>
+        <f>'Canada tax data'!L70/('Canada fuel price projections'!L27-'Canada tax data'!L70)</f>
+        <v>5.6634722613542646E-2</v>
       </c>
       <c r="M34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!M27-'Canada tax data'!$M$43)</f>
-        <v>7.0078974213506243E-2</v>
+        <f>'Canada tax data'!M70/('Canada fuel price projections'!M27-'Canada tax data'!M70)</f>
+        <v>5.5341611395005784E-2</v>
       </c>
       <c r="N34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!N27-'Canada tax data'!$M$43)</f>
-        <v>7.0266015962031414E-2</v>
+        <f>'Canada tax data'!N70/('Canada fuel price projections'!N27-'Canada tax data'!N70)</f>
+        <v>5.4317255383479347E-2</v>
       </c>
       <c r="O34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!O27-'Canada tax data'!$M$43)</f>
-        <v>7.043067790904739E-2</v>
+        <f>'Canada tax data'!O70/('Canada fuel price projections'!O27-'Canada tax data'!O70)</f>
+        <v>5.3295757629975272E-2</v>
       </c>
       <c r="P34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!P27-'Canada tax data'!$M$43)</f>
-        <v>7.0506187265157352E-2</v>
+        <f>'Canada tax data'!P70/('Canada fuel price projections'!P27-'Canada tax data'!P70)</f>
+        <v>5.2229210616165943E-2</v>
       </c>
       <c r="Q34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!Q27-'Canada tax data'!$M$43)</f>
-        <v>7.0473142455889759E-2</v>
+        <f>'Canada tax data'!Q70/('Canada fuel price projections'!Q27-'Canada tax data'!Q70)</f>
+        <v>5.1107684912381539E-2</v>
       </c>
       <c r="R34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!R27-'Canada tax data'!$M$43)</f>
-        <v>7.003850207884818E-2</v>
+        <f>'Canada tax data'!R70/('Canada fuel price projections'!R27-'Canada tax data'!R70)</f>
+        <v>4.9731659454905215E-2</v>
       </c>
       <c r="S34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!S27-'Canada tax data'!$M$43)</f>
-        <v>6.9583074606347911E-2</v>
+        <f>'Canada tax data'!S70/('Canada fuel price projections'!S27-'Canada tax data'!S70)</f>
+        <v>4.8378276555492927E-2</v>
       </c>
       <c r="T34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!T27-'Canada tax data'!$M$43)</f>
-        <v>6.9155866047826864E-2</v>
+        <f>'Canada tax data'!T70/('Canada fuel price projections'!T27-'Canada tax data'!T70)</f>
+        <v>4.708008784887692E-2</v>
       </c>
       <c r="U34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!U27-'Canada tax data'!$M$43)</f>
-        <v>6.8716385263254007E-2</v>
+        <f>'Canada tax data'!U70/('Canada fuel price projections'!U27-'Canada tax data'!U70)</f>
+        <v>4.5808430774380515E-2</v>
       </c>
       <c r="V34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!V27-'Canada tax data'!$M$43)</f>
-        <v>6.8473301809856377E-2</v>
+        <f>'Canada tax data'!V70/('Canada fuel price projections'!V27-'Canada tax data'!V70)</f>
+        <v>4.4696041152722792E-2</v>
       </c>
       <c r="W34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!W27-'Canada tax data'!$M$43)</f>
-        <v>6.8057045602838651E-2</v>
+        <f>'Canada tax data'!W70/('Canada fuel price projections'!W27-'Canada tax data'!W70)</f>
+        <v>4.3503076009734472E-2</v>
       </c>
       <c r="X34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!X27-'Canada tax data'!$M$43)</f>
-        <v>6.7723776658117255E-2</v>
+        <f>'Canada tax data'!X70/('Canada fuel price projections'!X27-'Canada tax data'!X70)</f>
+        <v>4.2392313719996577E-2</v>
       </c>
       <c r="Y34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!Y27-'Canada tax data'!$M$43)</f>
-        <v>6.7260143053885141E-2</v>
+        <f>'Canada tax data'!Y70/('Canada fuel price projections'!Y27-'Canada tax data'!Y70)</f>
+        <v>4.1232033825526725E-2</v>
       </c>
       <c r="Z34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!Z27-'Canada tax data'!$M$43)</f>
-        <v>6.6893745708022895E-2</v>
+        <f>'Canada tax data'!Z70/('Canada fuel price projections'!Z27-'Canada tax data'!Z70)</f>
+        <v>4.0159673629364206E-2</v>
       </c>
       <c r="AA34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AA27-'Canada tax data'!$M$43)</f>
-        <v>6.6490881189702269E-2</v>
+        <f>'Canada tax data'!AA70/('Canada fuel price projections'!AA27-'Canada tax data'!AA70)</f>
+        <v>3.9094146191298765E-2</v>
       </c>
       <c r="AB34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AB27-'Canada tax data'!$M$43)</f>
-        <v>6.6164824550981785E-2</v>
+        <f>'Canada tax data'!AB70/('Canada fuel price projections'!AB27-'Canada tax data'!AB70)</f>
+        <v>3.8099544523162124E-2</v>
       </c>
       <c r="AC34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AC27-'Canada tax data'!$M$43)</f>
-        <v>6.5804173874015007E-2</v>
+        <f>'Canada tax data'!AC70/('Canada fuel price projections'!AC27-'Canada tax data'!AC70)</f>
+        <v>3.711123500421392E-2</v>
       </c>
       <c r="AD34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AD27-'Canada tax data'!$M$43)</f>
-        <v>6.5447433545989184E-2</v>
+        <f>'Canada tax data'!AD70/('Canada fuel price projections'!AD27-'Canada tax data'!AD70)</f>
+        <v>3.615043488867456E-2</v>
       </c>
       <c r="AE34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AE27-'Canada tax data'!$M$43)</f>
-        <v>6.5094540312979177E-2</v>
+        <f>'Canada tax data'!AE70/('Canada fuel price projections'!AE27-'Canada tax data'!AE70)</f>
+        <v>3.5216298127894279E-2</v>
       </c>
       <c r="AF34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AF27-'Canada tax data'!$M$43)</f>
-        <v>6.4745432278006956E-2</v>
+        <f>'Canada tax data'!AF70/('Canada fuel price projections'!AF27-'Canada tax data'!AF70)</f>
+        <v>3.4308008362970627E-2</v>
       </c>
       <c r="AG34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AG27-'Canada tax data'!$M$43)</f>
-        <v>6.440004886484782E-2</v>
+        <f>'Canada tax data'!AG70/('Canada fuel price projections'!AG27-'Canada tax data'!AG70)</f>
+        <v>3.3424777707209662E-2</v>
       </c>
       <c r="AH34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AH27-'Canada tax data'!$M$43)</f>
-        <v>6.4058330782989975E-2</v>
+        <f>'Canada tax data'!AH70/('Canada fuel price projections'!AH27-'Canada tax data'!AH70)</f>
+        <v>3.2565845587239656E-2</v>
       </c>
       <c r="AI34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AI27-'Canada tax data'!$M$43)</f>
-        <v>6.3720219993702948E-2</v>
+        <f>'Canada tax data'!AI70/('Canada fuel price projections'!AI27-'Canada tax data'!AI70)</f>
+        <v>3.1730477639498385E-2</v>
       </c>
       <c r="AJ34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AJ27-'Canada tax data'!$M$43)</f>
-        <v>6.3385659677176256E-2</v>
+        <f>'Canada tax data'!AJ70/('Canada fuel price projections'!AJ27-'Canada tax data'!AJ70)</f>
+        <v>3.0917964659025181E-2</v>
       </c>
       <c r="AK34" s="5">
-        <f>'Canada tax data'!$M$43/('Canada fuel price projections'!AK27-'Canada tax data'!$M$43)</f>
-        <v>6.3054594200686695E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+        <f>'Canada tax data'!AK70/('Canada fuel price projections'!AK27-'Canada tax data'!AK70)</f>
+        <v>3.0127621597680586E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!B28-'Canada tax data'!$K$38)</f>
+        <f>'Canada tax data'!B68/('Canada fuel price projections'!B28-'Canada tax data'!B68)</f>
         <v>6.5314606572640807E-2</v>
       </c>
       <c r="C35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!C28-'Canada tax data'!$K$38)</f>
-        <v>5.9676521466680232E-2</v>
+        <f>'Canada tax data'!C68/('Canada fuel price projections'!C28-'Canada tax data'!C68)</f>
+        <v>5.8413273018522054E-2</v>
       </c>
       <c r="D35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!D28-'Canada tax data'!$K$38)</f>
-        <v>5.4045926065961626E-2</v>
+        <f>'Canada tax data'!D68/('Canada fuel price projections'!D28-'Canada tax data'!D68)</f>
+        <v>5.1794855077787548E-2</v>
       </c>
       <c r="E35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!E28-'Canada tax data'!$K$38)</f>
-        <v>5.2352367012178602E-2</v>
+        <f>'Canada tax data'!E68/('Canada fuel price projections'!E28-'Canada tax data'!E68)</f>
+        <v>4.9122394031806439E-2</v>
       </c>
       <c r="F35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!F28-'Canada tax data'!$K$38)</f>
-        <v>5.0633518526017024E-2</v>
+        <f>'Canada tax data'!F68/('Canada fuel price projections'!F28-'Canada tax data'!F68)</f>
+        <v>4.6519886194834881E-2</v>
       </c>
       <c r="G35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!G28-'Canada tax data'!$K$38)</f>
-        <v>4.9264882223019092E-2</v>
+        <f>'Canada tax data'!G68/('Canada fuel price projections'!G28-'Canada tax data'!G68)</f>
+        <v>4.4321762039464585E-2</v>
       </c>
       <c r="H35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!H28-'Canada tax data'!$K$38)</f>
-        <v>4.819893136957424E-2</v>
+        <f>'Canada tax data'!H68/('Canada fuel price projections'!H28-'Canada tax data'!H68)</f>
+        <v>4.2463012934412597E-2</v>
       </c>
       <c r="I35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!I28-'Canada tax data'!$K$38)</f>
-        <v>4.7513559864859875E-2</v>
+        <f>'Canada tax data'!I68/('Canada fuel price projections'!I28-'Canada tax data'!I68)</f>
+        <v>4.0990892718566631E-2</v>
       </c>
       <c r="J35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!J28-'Canada tax data'!$K$38)</f>
-        <v>4.6957131896601362E-2</v>
+        <f>'Canada tax data'!J68/('Canada fuel price projections'!J28-'Canada tax data'!J68)</f>
+        <v>3.9671384697566654E-2</v>
       </c>
       <c r="K35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!K28-'Canada tax data'!$K$38)</f>
-        <v>4.6738192816951844E-2</v>
+        <f>'Canada tax data'!K68/('Canada fuel price projections'!K28-'Canada tax data'!K68)</f>
+        <v>3.8667405201357398E-2</v>
       </c>
       <c r="L35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!L28-'Canada tax data'!$K$38)</f>
-        <v>4.6413585649259251E-2</v>
+        <f>'Canada tax data'!L68/('Canada fuel price projections'!L28-'Canada tax data'!L68)</f>
+        <v>3.7604009124323851E-2</v>
       </c>
       <c r="M35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!M28-'Canada tax data'!$K$38)</f>
-        <v>4.6199674291598623E-2</v>
+        <f>'Canada tax data'!M68/('Canada fuel price projections'!M28-'Canada tax data'!M68)</f>
+        <v>3.6656066474599687E-2</v>
       </c>
       <c r="N35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!N28-'Canada tax data'!$K$38)</f>
-        <v>4.588247890950075E-2</v>
+        <f>'Canada tax data'!N68/('Canada fuel price projections'!N28-'Canada tax data'!N68)</f>
+        <v>3.5652581934890723E-2</v>
       </c>
       <c r="O35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!O28-'Canada tax data'!$K$38)</f>
-        <v>4.567342405623067E-2</v>
+        <f>'Canada tax data'!O68/('Canada fuel price projections'!O28-'Canada tax data'!O68)</f>
+        <v>3.4757213140007265E-2</v>
       </c>
       <c r="P35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!P28-'Canada tax data'!$K$38)</f>
-        <v>4.5363389475838525E-2</v>
+        <f>'Canada tax data'!P68/('Canada fuel price projections'!P28-'Canada tax data'!P68)</f>
+        <v>3.3809905698262213E-2</v>
       </c>
       <c r="Q35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!Q28-'Canada tax data'!$K$38)</f>
-        <v>4.5159027596385765E-2</v>
+        <f>'Canada tax data'!Q68/('Canada fuel price projections'!Q28-'Canada tax data'!Q68)</f>
+        <v>3.2963891930243253E-2</v>
       </c>
       <c r="R35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!R28-'Canada tax data'!$K$38)</f>
-        <v>4.4855914039278605E-2</v>
+        <f>'Canada tax data'!R68/('Canada fuel price projections'!R28-'Canada tax data'!R68)</f>
+        <v>3.2069292073558915E-2</v>
       </c>
       <c r="S35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!S28-'Canada tax data'!$K$38)</f>
-        <v>4.4556842431194128E-2</v>
+        <f>'Canada tax data'!S68/('Canada fuel price projections'!S28-'Canada tax data'!S68)</f>
+        <v>3.120103163431583E-2</v>
       </c>
       <c r="T35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!T28-'Canada tax data'!$K$38)</f>
-        <v>4.4261732459924728E-2</v>
+        <f>'Canada tax data'!T68/('Canada fuel price projections'!T28-'Canada tax data'!T68)</f>
+        <v>3.0358244787889233E-2</v>
       </c>
       <c r="U35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!U28-'Canada tax data'!$K$38)</f>
-        <v>4.3970505926966386E-2</v>
+        <f>'Canada tax data'!U68/('Canada fuel price projections'!U28-'Canada tax data'!U68)</f>
+        <v>2.9540098405817096E-2</v>
       </c>
       <c r="V35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!V28-'Canada tax data'!$K$38)</f>
-        <v>4.3683086678436095E-2</v>
+        <f>'Canada tax data'!V68/('Canada fuel price projections'!V28-'Canada tax data'!V68)</f>
+        <v>2.8745790611134272E-2</v>
       </c>
       <c r="W35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!W28-'Canada tax data'!$K$38)</f>
-        <v>4.3493552294680271E-2</v>
+        <f>'Canada tax data'!W68/('Canada fuel price projections'!W28-'Canada tax data'!W68)</f>
+        <v>2.8034339008088303E-2</v>
       </c>
       <c r="X35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!X28-'Canada tax data'!$K$38)</f>
-        <v>4.3212314633351998E-2</v>
+        <f>'Canada tax data'!X68/('Canada fuel price projections'!X28-'Canada tax data'!X68)</f>
+        <v>2.7283417416858136E-2</v>
       </c>
       <c r="Y35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!Y28-'Canada tax data'!$K$38)</f>
-        <v>4.2934690678553399E-2</v>
+        <f>'Canada tax data'!Y68/('Canada fuel price projections'!Y28-'Canada tax data'!Y68)</f>
+        <v>2.6554176658370721E-2</v>
       </c>
       <c r="Z35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!Z28-'Canada tax data'!$K$38)</f>
-        <v>4.2660611224518884E-2</v>
+        <f>'Canada tax data'!Z68/('Canada fuel price projections'!Z28-'Canada tax data'!Z68)</f>
+        <v>2.5845923817352519E-2</v>
       </c>
       <c r="AA35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AA28-'Canada tax data'!$K$38)</f>
-        <v>4.2390008821411466E-2</v>
+        <f>'Canada tax data'!AA68/('Canada fuel price projections'!AA28-'Canada tax data'!AA68)</f>
+        <v>2.5157991183755491E-2</v>
       </c>
       <c r="AB35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AB28-'Canada tax data'!$K$38)</f>
-        <v>4.2152339167877778E-2</v>
+        <f>'Canada tax data'!AB68/('Canada fuel price projections'!AB28-'Canada tax data'!AB68)</f>
+        <v>2.4506608016160801E-2</v>
       </c>
       <c r="AC35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AC28-'Canada tax data'!$K$38)</f>
-        <v>4.1901391104123165E-2</v>
+        <f>'Canada tax data'!AC68/('Canada fuel price projections'!AC28-'Canada tax data'!AC68)</f>
+        <v>2.3864275681482087E-2</v>
       </c>
       <c r="AD35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AD28-'Canada tax data'!$K$38)</f>
-        <v>4.1653413325684327E-2</v>
+        <f>'Canada tax data'!AD68/('Canada fuel price projections'!AD28-'Canada tax data'!AD68)</f>
+        <v>2.3239937537045653E-2</v>
       </c>
       <c r="AE35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AE28-'Canada tax data'!$K$38)</f>
-        <v>4.1408353407238703E-2</v>
+        <f>'Canada tax data'!AE68/('Canada fuel price projections'!AE28-'Canada tax data'!AE68)</f>
+        <v>2.2633041521016296E-2</v>
       </c>
       <c r="AF35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AF28-'Canada tax data'!$K$38)</f>
-        <v>4.1166160149985115E-2</v>
+        <f>'Canada tax data'!AF68/('Canada fuel price projections'!AF28-'Canada tax data'!AF68)</f>
+        <v>2.2043054633586807E-2</v>
       </c>
       <c r="AG35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AG28-'Canada tax data'!$K$38)</f>
-        <v>4.0926783545983718E-2</v>
+        <f>'Canada tax data'!AG68/('Canada fuel price projections'!AG28-'Canada tax data'!AG68)</f>
+        <v>2.1469462179329452E-2</v>
       </c>
       <c r="AH35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AH28-'Canada tax data'!$K$38)</f>
-        <v>4.0690174743732363E-2</v>
+        <f>'Canada tax data'!AH68/('Canada fuel price projections'!AH28-'Canada tax data'!AH68)</f>
+        <v>2.0911767044533881E-2</v>
       </c>
       <c r="AI35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AI28-'Canada tax data'!$K$38)</f>
-        <v>4.0456286014930155E-2</v>
+        <f>'Canada tax data'!AI68/('Canada fuel price projections'!AI28-'Canada tax data'!AI68)</f>
+        <v>2.0369489007666098E-2</v>
       </c>
       <c r="AJ35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AJ28-'Canada tax data'!$K$38)</f>
-        <v>4.0225070722381281E-2</v>
+        <f>'Canada tax data'!AJ68/('Canada fuel price projections'!AJ28-'Canada tax data'!AJ68)</f>
+        <v>1.9842164081196094E-2</v>
       </c>
       <c r="AK35" s="5">
-        <f>'Canada tax data'!$K$38/('Canada fuel price projections'!AK28-'Canada tax data'!$K$38)</f>
-        <v>3.9996483288992683E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+        <f>'Canada tax data'!AK68/('Canada fuel price projections'!AK28-'Canada tax data'!AK68)</f>
+        <v>1.9329343883146485E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!B29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
+        <f>('Canada tax data'!B61+'Canada tax data'!B66)/('Canada fuel price projections'!B29-('Canada tax data'!B61+'Canada tax data'!B66))</f>
         <v>0.1729185702693187</v>
       </c>
       <c r="C36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!C29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.15796221584788972</v>
+        <f>('Canada tax data'!C61+'Canada tax data'!C66)/('Canada fuel price projections'!C29-('Canada tax data'!C61+'Canada tax data'!C66))</f>
+        <v>0.15431545131833568</v>
       </c>
       <c r="D36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!D29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.15124716397253155</v>
+        <f>('Canada tax data'!D61+'Canada tax data'!D66)/('Canada fuel price projections'!D29-('Canada tax data'!D61+'Canada tax data'!D66))</f>
+        <v>0.14439295091600196</v>
       </c>
       <c r="E36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!E29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.14631722415832774</v>
+        <f>('Canada tax data'!E61+'Canada tax data'!E66)/('Canada fuel price projections'!E29-('Canada tax data'!E61+'Canada tax data'!E66))</f>
+        <v>0.13653774497577773</v>
       </c>
       <c r="F36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!F29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.14403560164046211</v>
+        <f>('Canada tax data'!F61+'Canada tax data'!F66)/('Canada fuel price projections'!F29-('Canada tax data'!F61+'Canada tax data'!F66))</f>
+        <v>0.1313847416844528</v>
       </c>
       <c r="G36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!G29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.14033233136099674</v>
+        <f>('Canada tax data'!G61+'Canada tax data'!G66)/('Canada fuel price projections'!G29-('Canada tax data'!G61+'Canada tax data'!G66))</f>
+        <v>0.1251617545189046</v>
       </c>
       <c r="H36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!H29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.13728397095866618</v>
+        <f>('Canada tax data'!H61+'Canada tax data'!H66)/('Canada fuel price projections'!H29-('Canada tax data'!H61+'Canada tax data'!H66))</f>
+        <v>0.11973546414496924</v>
       </c>
       <c r="I36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!I29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.13508321830754261</v>
+        <f>('Canada tax data'!I61+'Canada tax data'!I66)/('Canada fuel price projections'!I29-('Canada tax data'!I61+'Canada tax data'!I66))</f>
+        <v>0.11521671717140626</v>
       </c>
       <c r="J36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!J29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.13321002133372814</v>
+        <f>('Canada tax data'!J61+'Canada tax data'!J66)/('Canada fuel price projections'!J29-('Canada tax data'!J61+'Canada tax data'!J66))</f>
+        <v>0.1111210885985961</v>
       </c>
       <c r="K36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!K29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.13156801480439631</v>
+        <f>('Canada tax data'!K61+'Canada tax data'!K66)/('Canada fuel price projections'!K29-('Canada tax data'!K61+'Canada tax data'!K66))</f>
+        <v>0.1073464967938718</v>
       </c>
       <c r="L36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!L29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12993083816250212</v>
+        <f>('Canada tax data'!L61+'Canada tax data'!L66)/('Canada fuel price projections'!L29-('Canada tax data'!L61+'Canada tax data'!L66))</f>
+        <v>0.10369826632309828</v>
       </c>
       <c r="M36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!M29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12823112005119258</v>
+        <f>('Canada tax data'!M61+'Canada tax data'!M66)/('Canada fuel price projections'!M29-('Canada tax data'!M61+'Canada tax data'!M66))</f>
+        <v>0.10012035830957178</v>
       </c>
       <c r="N36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!N29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12654195101280358</v>
+        <f>('Canada tax data'!N61+'Canada tax data'!N66)/('Canada fuel price projections'!N29-('Canada tax data'!N61+'Canada tax data'!N66))</f>
+        <v>9.6666170048913369E-2</v>
       </c>
       <c r="O36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!O29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12486423705988317</v>
+        <f>('Canada tax data'!O61+'Canada tax data'!O66)/('Canada fuel price projections'!O29-('Canada tax data'!O61+'Canada tax data'!O66))</f>
+        <v>9.3331630987349423E-2</v>
       </c>
       <c r="P36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!P29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12313565186942139</v>
+        <f>('Canada tax data'!P61+'Canada tax data'!P66)/('Canada fuel price projections'!P29-('Canada tax data'!P61+'Canada tax data'!P66))</f>
+        <v>9.0067939356333546E-2</v>
       </c>
       <c r="Q36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!Q29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12145427325367002</v>
+        <f>('Canada tax data'!Q61+'Canada tax data'!Q66)/('Canada fuel price projections'!Q29-('Canada tax data'!Q61+'Canada tax data'!Q66))</f>
+        <v>8.6941806107012437E-2</v>
       </c>
       <c r="R36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!R29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.12069130941663579</v>
+        <f>('Canada tax data'!R61+'Canada tax data'!R66)/('Canada fuel price projections'!R29-('Canada tax data'!R61+'Canada tax data'!R66))</f>
+        <v>8.4538002192158429E-2</v>
       </c>
       <c r="S36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!S29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11990792956474634</v>
+        <f>('Canada tax data'!S61+'Canada tax data'!S66)/('Canada fuel price projections'!S29-('Canada tax data'!S61+'Canada tax data'!S66))</f>
+        <v>8.2188649794724775E-2</v>
       </c>
       <c r="T36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!T29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11913465361180141</v>
+        <f>('Canada tax data'!T61+'Canada tax data'!T66)/('Canada fuel price projections'!T29-('Canada tax data'!T61+'Canada tax data'!T66))</f>
+        <v>7.9912296500851174E-2</v>
       </c>
       <c r="U36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!U29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11837128733280836</v>
+        <f>('Canada tax data'!U61+'Canada tax data'!U66)/('Canada fuel price projections'!U29-('Canada tax data'!U61+'Canada tax data'!U66))</f>
+        <v>7.7706298359361659E-2</v>
       </c>
       <c r="V36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!V29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11758884667055033</v>
+        <f>('Canada tax data'!V61+'Canada tax data'!V66)/('Canada fuel price projections'!V29-('Canada tax data'!V61+'Canada tax data'!V66))</f>
+        <v>7.5550322115982671E-2</v>
       </c>
       <c r="W36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!W29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11678827804948592</v>
+        <f>('Canada tax data'!W61+'Canada tax data'!W66)/('Canada fuel price projections'!W29-('Canada tax data'!W61+'Canada tax data'!W66))</f>
+        <v>7.3443830945696925E-2</v>
       </c>
       <c r="X36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!X29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11599853658075532</v>
+        <f>('Canada tax data'!X61+'Canada tax data'!X66)/('Canada fuel price projections'!X29-('Canada tax data'!X61+'Canada tax data'!X66))</f>
+        <v>7.140281494136333E-2</v>
       </c>
       <c r="Y36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!Y29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11521940409472373</v>
+        <f>('Canada tax data'!Y61+'Canada tax data'!Y66)/('Canada fuel price projections'!Y29-('Canada tax data'!Y61+'Canada tax data'!Y66))</f>
+        <v>6.9424913224999552E-2</v>
       </c>
       <c r="Z36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!Z29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11445066824420724</v>
+        <f>('Canada tax data'!Z61+'Canada tax data'!Z66)/('Canada fuel price projections'!Z29-('Canada tax data'!Z61+'Canada tax data'!Z66))</f>
+        <v>6.7507866757137561E-2</v>
       </c>
       <c r="AA36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AA29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11366521730470343</v>
+        <f>('Canada tax data'!AA61+'Canada tax data'!AA66)/('Canada fuel price projections'!AA29-('Canada tax data'!AA61+'Canada tax data'!AA66))</f>
+        <v>6.5634647257184833E-2</v>
       </c>
       <c r="AB36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AB29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11299316204201021</v>
+        <f>('Canada tax data'!AB61+'Canada tax data'!AB66)/('Canada fuel price projections'!AB29-('Canada tax data'!AB61+'Canada tax data'!AB66))</f>
+        <v>6.3874581361709107E-2</v>
       </c>
       <c r="AC36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AC29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.1122707659573165</v>
+        <f>('Canada tax data'!AC61+'Canada tax data'!AC66)/('Canada fuel price projections'!AC29-('Canada tax data'!AC61+'Canada tax data'!AC66))</f>
+        <v>6.2135550717693222E-2</v>
       </c>
       <c r="AD36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AD29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11155754814359571</v>
+        <f>('Canada tax data'!AD61+'Canada tax data'!AD66)/('Canada fuel price projections'!AD29-('Canada tax data'!AD61+'Canada tax data'!AD66))</f>
+        <v>6.0448674385267902E-2</v>
       </c>
       <c r="AE36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AE29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.11085333478577801</v>
+        <f>('Canada tax data'!AE61+'Canada tax data'!AE66)/('Canada fuel price projections'!AE29-('Canada tax data'!AE61+'Canada tax data'!AE66))</f>
+        <v>5.8812163542040267E-2</v>
       </c>
       <c r="AF36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AF29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.1101579564301322</v>
+        <f>('Canada tax data'!AF61+'Canada tax data'!AF66)/('Canada fuel price projections'!AF29-('Canada tax data'!AF61+'Canada tax data'!AF66))</f>
+        <v>5.7224301868670217E-2</v>
       </c>
       <c r="AG36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AG29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.1094712478483254</v>
+        <f>('Canada tax data'!AG61+'Canada tax data'!AG66)/('Canada fuel price projections'!AG29-('Canada tax data'!AG61+'Canada tax data'!AG66))</f>
+        <v>5.5683442031188218E-2</v>
       </c>
       <c r="AH36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AH29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.10879304790653826</v>
+        <f>('Canada tax data'!AH61+'Canada tax data'!AH66)/('Canada fuel price projections'!AH29-('Canada tax data'!AH61+'Canada tax data'!AH66))</f>
+        <v>5.4188002365516109E-2</v>
       </c>
       <c r="AI36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AI29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.10812319943941132</v>
+        <f>('Canada tax data'!AI61+'Canada tax data'!AI66)/('Canada fuel price projections'!AI29-('Canada tax data'!AI61+'Canada tax data'!AI66))</f>
+        <v>5.2736463750718769E-2</v>
       </c>
       <c r="AJ36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AJ29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.10746154912862364</v>
+        <f>('Canada tax data'!AJ61+'Canada tax data'!AJ66)/('Canada fuel price projections'!AJ29-('Canada tax data'!AJ61+'Canada tax data'!AJ66))</f>
+        <v>5.1327366658538993E-2</v>
       </c>
       <c r="AK36" s="5">
-        <f>('Canada tax data'!$I$23+'Canada tax data'!$I$38)/('Canada fuel price projections'!AK29-('Canada tax data'!$I$23+'Canada tax data'!$I$38))</f>
-        <v>0.10680794738590009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+        <f>('Canada tax data'!AK61+'Canada tax data'!AK66)/('Canada fuel price projections'!AK29-('Canada tax data'!AK61+'Canada tax data'!AK66))</f>
+        <v>4.9959308367692259E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!B30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
+        <f>('Canada tax data'!B62+'Canada tax data'!B67)/('Canada fuel price projections'!B30-('Canada tax data'!B62+'Canada tax data'!B67))</f>
         <v>0.16057911836762634</v>
       </c>
       <c r="C37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!C30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.14701767546453948</v>
+        <f>('Canada tax data'!C62+'Canada tax data'!C67)/('Canada fuel price projections'!C30-('Canada tax data'!C62+'Canada tax data'!C67))</f>
+        <v>0.14365492569036808</v>
       </c>
       <c r="D37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!D30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.14131204631084276</v>
+        <f>('Canada tax data'!D62+'Canada tax data'!D67)/('Canada fuel price projections'!D30-('Canada tax data'!D62+'Canada tax data'!D67))</f>
+        <v>0.13496085413592904</v>
       </c>
       <c r="E37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!E30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.13718589497883241</v>
+        <f>('Canada tax data'!E62+'Canada tax data'!E67)/('Canada fuel price projections'!E30-('Canada tax data'!E62+'Canada tax data'!E67))</f>
+        <v>0.12808492532267146</v>
       </c>
       <c r="F37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!F30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.1354004258766229</v>
+        <f>('Canada tax data'!F62+'Canada tax data'!F67)/('Canada fuel price projections'!F30-('Canada tax data'!F62+'Canada tax data'!F67))</f>
+        <v>0.12358994033323766</v>
       </c>
       <c r="G37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!G30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.13228499748454881</v>
+        <f>('Canada tax data'!G62+'Canada tax data'!G67)/('Canada fuel price projections'!G30-('Canada tax data'!G62+'Canada tax data'!G67))</f>
+        <v>0.11807445325800627</v>
       </c>
       <c r="H37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!H30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12973203324107754</v>
+        <f>('Canada tax data'!H62+'Canada tax data'!H67)/('Canada fuel price projections'!H30-('Canada tax data'!H62+'Canada tax data'!H67))</f>
+        <v>0.11324498627380387</v>
       </c>
       <c r="I37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!I30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12787169765725942</v>
+        <f>('Canada tax data'!I62+'Canada tax data'!I67)/('Canada fuel price projections'!I30-('Canada tax data'!I62+'Canada tax data'!I67))</f>
+        <v>0.10916778800315952</v>
       </c>
       <c r="J37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!J30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12631907395402775</v>
+        <f>('Canada tax data'!J62+'Canada tax data'!J67)/('Canada fuel price projections'!J30-('Canada tax data'!J62+'Canada tax data'!J67))</f>
+        <v>0.10547915924482699</v>
       </c>
       <c r="K37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!K30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12498219415939353</v>
+        <f>('Canada tax data'!K62+'Canada tax data'!K67)/('Canada fuel price projections'!K30-('Canada tax data'!K62+'Canada tax data'!K67))</f>
+        <v>0.1020824964422202</v>
       </c>
       <c r="L37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!L30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.1235683905576816</v>
+        <f>('Canada tax data'!L62+'Canada tax data'!L67)/('Canada fuel price projections'!L30-('Canada tax data'!L62+'Canada tax data'!L67))</f>
+        <v>9.8732617763286401E-2</v>
       </c>
       <c r="M37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!M30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12211791762764876</v>
+        <f>('Canada tax data'!M62+'Canada tax data'!M67)/('Canada fuel price projections'!M30-('Canada tax data'!M62+'Canada tax data'!M67))</f>
+        <v>9.5460678958416353E-2</v>
       </c>
       <c r="N37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!N30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.12066776843788422</v>
+        <f>('Canada tax data'!N62+'Canada tax data'!N67)/('Canada fuel price projections'!N30-('Canada tax data'!N62+'Canada tax data'!N67))</f>
+        <v>9.2292465090559647E-2</v>
       </c>
       <c r="O37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!O30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11918659887394888</v>
+        <f>('Canada tax data'!O62+'Canada tax data'!O67)/('Canada fuel price projections'!O30-('Canada tax data'!O62+'Canada tax data'!O67))</f>
+        <v>8.9201496168224037E-2</v>
       </c>
       <c r="P37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!P30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11767793023211286</v>
+        <f>('Canada tax data'!P62+'Canada tax data'!P67)/('Canada fuel price projections'!P30-('Canada tax data'!P62+'Canada tax data'!P67))</f>
+        <v>8.6188345548312992E-2</v>
       </c>
       <c r="Q37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!Q30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11617608031227591</v>
+        <f>('Canada tax data'!Q62+'Canada tax data'!Q67)/('Canada fuel price projections'!Q30-('Canada tax data'!Q62+'Canada tax data'!Q67))</f>
+        <v>8.3274838578193108E-2</v>
       </c>
       <c r="R37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!R30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11553100839464991</v>
+        <f>('Canada tax data'!R62+'Canada tax data'!R67)/('Canada fuel price projections'!R30-('Canada tax data'!R62+'Canada tax data'!R67))</f>
+        <v>8.1035251504117889E-2</v>
       </c>
       <c r="S37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!S30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11486285770759515</v>
+        <f>('Canada tax data'!S62+'Canada tax data'!S67)/('Canada fuel price projections'!S30-('Canada tax data'!S62+'Canada tax data'!S67))</f>
+        <v>7.8842327027636758E-2</v>
       </c>
       <c r="T37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!T30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11420239081694883</v>
+        <f>('Canada tax data'!T62+'Canada tax data'!T67)/('Canada fuel price projections'!T30-('Canada tax data'!T62+'Canada tax data'!T67))</f>
+        <v>7.6715179991618199E-2</v>
       </c>
       <c r="U37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!U30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11357899187951662</v>
+        <f>('Canada tax data'!U62+'Canada tax data'!U67)/('Canada fuel price projections'!U30-('Canada tax data'!U62+'Canada tax data'!U67))</f>
+        <v>7.4670257332559831E-2</v>
       </c>
       <c r="V37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!V30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11290398426641968</v>
+        <f>('Canada tax data'!V62+'Canada tax data'!V67)/('Canada fuel price projections'!V30-('Canada tax data'!V62+'Canada tax data'!V67))</f>
+        <v>7.2649193099472223E-2</v>
       </c>
       <c r="W37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!W30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11220812984466232</v>
+        <f>('Canada tax data'!W62+'Canada tax data'!W67)/('Canada fuel price projections'!W30-('Canada tax data'!W62+'Canada tax data'!W67))</f>
+        <v>7.0671113476628855E-2</v>
       </c>
       <c r="X37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!X30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11154927088897033</v>
+        <f>('Canada tax data'!X62+'Canada tax data'!X67)/('Canada fuel price projections'!X30-('Canada tax data'!X62+'Canada tax data'!X67))</f>
+        <v>6.8769477655567929E-2</v>
       </c>
       <c r="Y37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!Y30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.1108699648973572</v>
+        <f>('Canada tax data'!Y62+'Canada tax data'!Y67)/('Canada fuel price projections'!Y30-('Canada tax data'!Y62+'Canada tax data'!Y67))</f>
+        <v>6.6907893098454074E-2</v>
       </c>
       <c r="Z37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!Z30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.11019888241963101</v>
+        <f>('Canada tax data'!Z62+'Canada tax data'!Z67)/('Canada fuel price projections'!Z30-('Canada tax data'!Z62+'Canada tax data'!Z67))</f>
+        <v>6.5101854770649725E-2</v>
       </c>
       <c r="AA37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AA30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10950842280686569</v>
+        <f>('Canada tax data'!AA62+'Canada tax data'!AA67)/('Canada fuel price projections'!AA30-('Canada tax data'!AA62+'Canada tax data'!AA67))</f>
+        <v>6.3334247454392895E-2</v>
       </c>
       <c r="AB37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AB30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10894776372784128</v>
+        <f>('Canada tax data'!AB62+'Canada tax data'!AB67)/('Canada fuel price projections'!AB30-('Canada tax data'!AB62+'Canada tax data'!AB67))</f>
+        <v>6.1685197731799923E-2</v>
       </c>
       <c r="AC37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AC30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10832441478865269</v>
+        <f>('Canada tax data'!AC62+'Canada tax data'!AC67)/('Canada fuel price projections'!AC30-('Canada tax data'!AC62+'Canada tax data'!AC67))</f>
+        <v>6.0046604522763433E-2</v>
       </c>
       <c r="AD37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AD30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10770815830094221</v>
+        <f>('Canada tax data'!AD62+'Canada tax data'!AD67)/('Canada fuel price projections'!AD30-('Canada tax data'!AD62+'Canada tax data'!AD67))</f>
+        <v>5.8455583968754582E-2</v>
       </c>
       <c r="AE37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AE30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10709887390279547</v>
+        <f>('Canada tax data'!AE62+'Canada tax data'!AE67)/('Canada fuel price projections'!AE30-('Canada tax data'!AE62+'Canada tax data'!AE67))</f>
+        <v>5.6910569492981081E-2</v>
       </c>
       <c r="AF37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AF30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10649644394043641</v>
+        <f>('Canada tax data'!AF62+'Canada tax data'!AF67)/('Canada fuel price projections'!AF30-('Canada tax data'!AF62+'Canada tax data'!AF67))</f>
+        <v>5.5410055104151798E-2</v>
       </c>
       <c r="AG37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AG30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10590075339248582</v>
+        <f>('Canada tax data'!AG62+'Canada tax data'!AG67)/('Canada fuel price projections'!AG30-('Canada tax data'!AG62+'Canada tax data'!AG67))</f>
+        <v>5.3952592598446002E-2</v>
       </c>
       <c r="AH37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AH30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10531168979675018</v>
+        <f>('Canada tax data'!AH62+'Canada tax data'!AH67)/('Canada fuel price projections'!AH30-('Canada tax data'!AH62+'Canada tax data'!AH67))</f>
+        <v>5.2536788914645832E-2</v>
       </c>
       <c r="AI37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AI30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10472914317943796</v>
+        <f>('Canada tax data'!AI62+'Canada tax data'!AI67)/('Canada fuel price projections'!AI30-('Canada tax data'!AI62+'Canada tax data'!AI67))</f>
+        <v>5.1161303632703027E-2</v>
       </c>
       <c r="AJ37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AJ30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10415300598671454</v>
+        <f>('Canada tax data'!AJ62+'Canada tax data'!AJ67)/('Canada fuel price projections'!AJ30-('Canada tax data'!AJ62+'Canada tax data'!AJ67))</f>
+        <v>4.982484660671635E-2</v>
       </c>
       <c r="AK37" s="5">
-        <f>('Canada tax data'!$J$23+'Canada tax data'!$J$38)/('Canada fuel price projections'!AK30-('Canada tax data'!$J$23+'Canada tax data'!$J$38))</f>
-        <v>0.10358317301850244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+        <f>('Canada tax data'!AK62+'Canada tax data'!AK67)/('Canada fuel price projections'!AK30-('Canada tax data'!AK62+'Canada tax data'!AK67))</f>
+        <v>4.8526175723936672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!B31-'Canada tax data'!$L$38)</f>
+        <f>'Canada tax data'!B69/('Canada fuel price projections'!B31-'Canada tax data'!B69)</f>
         <v>1.7297914162821844E-2</v>
       </c>
       <c r="C38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!C31-'Canada tax data'!$L$38)</f>
-        <v>1.8342686058961534E-2</v>
+        <f>'Canada tax data'!C69/('Canada fuel price projections'!C31-'Canada tax data'!C69)</f>
+        <v>1.7969240255127944E-2</v>
       </c>
       <c r="D38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!D31-'Canada tax data'!$L$38)</f>
-        <v>1.6484854645120093E-2</v>
+        <f>'Canada tax data'!D69/('Canada fuel price projections'!D31-'Canada tax data'!D69)</f>
+        <v>1.5821725974597464E-2</v>
       </c>
       <c r="E38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!E31-'Canada tax data'!$L$38)</f>
-        <v>1.5672169835909359E-2</v>
+        <f>'Canada tax data'!E69/('Canada fuel price projections'!E31-'Canada tax data'!E69)</f>
+        <v>1.4736938588021295E-2</v>
       </c>
       <c r="F38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!F31-'Canada tax data'!$L$38)</f>
-        <v>1.5262944803604805E-2</v>
+        <f>'Canada tax data'!F69/('Canada fuel price projections'!F31-'Canada tax data'!F69)</f>
+        <v>1.4061393103732918E-2</v>
       </c>
       <c r="G38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!G31-'Canada tax data'!$L$38)</f>
-        <v>1.4829910808167687E-2</v>
+        <f>'Canada tax data'!G69/('Canada fuel price projections'!G31-'Canada tax data'!G69)</f>
+        <v>1.338599181710815E-2</v>
       </c>
       <c r="H38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!H31-'Canada tax data'!$L$38)</f>
-        <v>1.4505425787582672E-2</v>
+        <f>'Canada tax data'!H69/('Canada fuel price projections'!H31-'Canada tax data'!H69)</f>
+        <v>1.2828278506234494E-2</v>
       </c>
       <c r="I38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!I31-'Canada tax data'!$L$38)</f>
-        <v>1.4202253494503565E-2</v>
+        <f>'Canada tax data'!I69/('Canada fuel price projections'!I31-'Canada tax data'!I69)</f>
+        <v>1.2306290257448674E-2</v>
       </c>
       <c r="J38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!J31-'Canada tax data'!$L$38)</f>
-        <v>1.4217110811168037E-2</v>
+        <f>'Canada tax data'!J69/('Canada fuel price projections'!J31-'Canada tax data'!J69)</f>
+        <v>1.206978348143488E-2</v>
       </c>
       <c r="K38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!K31-'Canada tax data'!$L$38)</f>
-        <v>1.422827421433887E-2</v>
+        <f>'Canada tax data'!K69/('Canada fuel price projections'!K31-'Canada tax data'!K69)</f>
+        <v>1.1834796781340216E-2</v>
       </c>
       <c r="L38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!L31-'Canada tax data'!$L$38)</f>
-        <v>1.4194836474853499E-2</v>
+        <f>'Canada tax data'!L69/('Canada fuel price projections'!L31-'Canada tax data'!L69)</f>
+        <v>1.15681767043956E-2</v>
       </c>
       <c r="M38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!M31-'Canada tax data'!$L$38)</f>
-        <v>1.4187427198124767E-2</v>
+        <f>'Canada tax data'!M69/('Canada fuel price projections'!M31-'Canada tax data'!M69)</f>
+        <v>1.132829142423452E-2</v>
       </c>
       <c r="N38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!N31-'Canada tax data'!$L$38)</f>
-        <v>1.4205964911718027E-2</v>
+        <f>'Canada tax data'!N69/('Canada fuel price projections'!N31-'Canada tax data'!N69)</f>
+        <v>1.1113669234281934E-2</v>
       </c>
       <c r="O38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!O31-'Canada tax data'!$L$38)</f>
-        <v>1.4243186051250431E-2</v>
+        <f>'Canada tax data'!O69/('Canada fuel price projections'!O31-'Canada tax data'!O69)</f>
+        <v>1.0917412241812214E-2</v>
       </c>
       <c r="P38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!P31-'Canada tax data'!$L$38)</f>
-        <v>1.4295624531436166E-2</v>
+        <f>'Canada tax data'!P69/('Canada fuel price projections'!P31-'Canada tax data'!P69)</f>
+        <v>1.0735971826703557E-2</v>
       </c>
       <c r="Q38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!Q31-'Canada tax data'!$L$38)</f>
-        <v>1.4348450559098232E-2</v>
+        <f>'Canada tax data'!Q69/('Canada fuel price projections'!Q31-'Canada tax data'!Q69)</f>
+        <v>1.0557718895596315E-2</v>
       </c>
       <c r="R38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!R31-'Canada tax data'!$L$38)</f>
-        <v>1.4401668446435601E-2</v>
+        <f>'Canada tax data'!R69/('Canada fuel price projections'!R31-'Canada tax data'!R69)</f>
+        <v>1.0382595180707926E-2</v>
       </c>
       <c r="S38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!S31-'Canada tax data'!$L$38)</f>
-        <v>1.4455282569860579E-2</v>
+        <f>'Canada tax data'!S69/('Canada fuel price projections'!S31-'Canada tax data'!S69)</f>
+        <v>1.0210543533625566E-2</v>
       </c>
       <c r="T38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!T31-'Canada tax data'!$L$38)</f>
-        <v>1.4513171022063089E-2</v>
+        <f>'Canada tax data'!T69/('Canada fuel price projections'!T31-'Canada tax data'!T69)</f>
+        <v>1.0044176946144753E-2</v>
       </c>
       <c r="U38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!U31-'Canada tax data'!$L$38)</f>
-        <v>1.4579340987527131E-2</v>
+        <f>'Canada tax data'!U69/('Canada fuel price projections'!U31-'Canada tax data'!U69)</f>
+        <v>9.8859784438153075E-3</v>
       </c>
       <c r="V38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!V31-'Canada tax data'!$L$38)</f>
-        <v>1.4634288663252474E-2</v>
+        <f>'Canada tax data'!V69/('Canada fuel price projections'!V31-'Canada tax data'!V69)</f>
+        <v>9.7226735684003331E-3</v>
       </c>
       <c r="W38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!W31-'Canada tax data'!$L$38)</f>
-        <v>1.4697595361963632E-2</v>
+        <f>'Canada tax data'!W69/('Canada fuel price projections'!W31-'Canada tax data'!W69)</f>
+        <v>9.5673695693301256E-3</v>
       </c>
       <c r="X38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!X31-'Canada tax data'!$L$38)</f>
-        <v>1.4753439731123997E-2</v>
+        <f>'Canada tax data'!X69/('Canada fuel price projections'!X31-'Canada tax data'!X69)</f>
+        <v>9.4096588033164476E-3</v>
       </c>
       <c r="Y38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!Y31-'Canada tax data'!$L$38)</f>
-        <v>1.4809710086707494E-2</v>
+        <f>'Canada tax data'!Y69/('Canada fuel price projections'!Y31-'Canada tax data'!Y69)</f>
+        <v>9.2547025609341863E-3</v>
       </c>
       <c r="Z38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!Z31-'Canada tax data'!$L$38)</f>
-        <v>1.4854224536169573E-2</v>
+        <f>'Canada tax data'!Z69/('Canada fuel price projections'!Z31-'Canada tax data'!Z69)</f>
+        <v>9.0950314455314381E-3</v>
       </c>
       <c r="AA38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AA31-'Canada tax data'!$L$38)</f>
-        <v>1.4899007391992066E-2</v>
+        <f>'Canada tax data'!AA69/('Canada fuel price projections'!AA31-'Canada tax data'!AA69)</f>
+        <v>8.9382186356660072E-3</v>
       </c>
       <c r="AB38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AB31-'Canada tax data'!$L$38)</f>
-        <v>5.1226763082360956E-4</v>
+        <f>'Canada tax data'!AB69/('Canada fuel price projections'!AB31-'Canada tax data'!AB69)</f>
+        <v>3.0288933921182153E-4</v>
       </c>
       <c r="AC38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AC31-'Canada tax data'!$L$38)</f>
-        <v>5.1426856464981455E-4</v>
+        <f>'Canada tax data'!AC69/('Canada fuel price projections'!AC31-'Canada tax data'!AC69)</f>
+        <v>2.97988930222791E-4</v>
       </c>
       <c r="AD38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AD31-'Canada tax data'!$L$38)</f>
-        <v>5.1628519119592629E-4</v>
+        <f>'Canada tax data'!AD69/('Canada fuel price projections'!AD31-'Canada tax data'!AD69)</f>
+        <v>2.9317229724637499E-4</v>
       </c>
       <c r="AE38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AE31-'Canada tax data'!$L$38)</f>
-        <v>5.1831769579861189E-4</v>
+        <f>'Canada tax data'!AE69/('Canada fuel price projections'!AE31-'Canada tax data'!AE69)</f>
+        <v>2.8843797380963791E-4</v>
       </c>
       <c r="AF38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AF31-'Canada tax data'!$L$38)</f>
-        <v>5.2036626672459529E-4</v>
+        <f>'Canada tax data'!AF69/('Canada fuel price projections'!AF31-'Canada tax data'!AF69)</f>
+        <v>2.8378451964378089E-4</v>
       </c>
       <c r="AG38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AG31-'Canada tax data'!$L$38)</f>
-        <v>5.2243109522879356E-4</v>
+        <f>'Canada tax data'!AG69/('Canada fuel price projections'!AG31-'Canada tax data'!AG69)</f>
+        <v>2.7921052020954298E-4</v>
       </c>
       <c r="AH38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AH31-'Canada tax data'!$L$38)</f>
-        <v>5.24512375613837E-4</v>
+        <f>'Canada tax data'!AH69/('Canada fuel price projections'!AH31-'Canada tax data'!AH69)</f>
+        <v>2.7471458623132809E-4</v>
       </c>
       <c r="AI38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AI31-'Canada tax data'!$L$38)</f>
-        <v>5.2661030529102049E-4</v>
+        <f>'Canada tax data'!AI69/('Canada fuel price projections'!AI31-'Canada tax data'!AI69)</f>
+        <v>2.7029535323990145E-4</v>
       </c>
       <c r="AJ38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AJ31-'Canada tax data'!$L$38)</f>
-        <v>5.2872508484272276E-4</v>
+        <f>'Canada tax data'!AJ69/('Canada fuel price projections'!AJ31-'Canada tax data'!AJ69)</f>
+        <v>2.6595148112349315E-4</v>
       </c>
       <c r="AK38" s="5">
-        <f>'Canada tax data'!$L$38/('Canada fuel price projections'!AK31-'Canada tax data'!$L$38)</f>
-        <v>5.3085691808633581E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+        <f>'Canada tax data'!AK69/('Canada fuel price projections'!AK31-'Canada tax data'!AK69)</f>
+        <v>2.6168165368715258E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="15">
       <c r="A43" s="39">
         <v>1.2789999999999999</v>
       </c>
@@ -7452,20 +8831,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.81640625" style="5"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" s="29">
         <v>2013</v>
       </c>
@@ -7479,15 +8858,15 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="30" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>112</v>
       </c>
       <c r="B4" s="31">
         <v>35152.400000000001</v>
@@ -7502,9 +8881,9 @@
         <v>36264.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="27">
         <v>527.4</v>
@@ -7523,9 +8902,9 @@
         <v>1.4623075947342587E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="27">
         <v>145.19999999999999</v>
@@ -7544,9 +8923,9 @@
         <v>4.1224775676555097E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="27">
         <v>943</v>
@@ -7565,9 +8944,9 @@
         <v>2.615774060654192E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="27">
         <v>755.7</v>
@@ -7586,9 +8965,9 @@
         <v>2.0885381336068782E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="33">
         <v>8151.3</v>
@@ -7607,9 +8986,9 @@
         <v>0.22947723123928018</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="33">
         <v>13555.8</v>
@@ -7628,9 +9007,9 @@
         <v>0.38539788112925555</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="33">
         <v>1265.5999999999999</v>
@@ -7649,9 +9028,9 @@
         <v>3.6346740347335968E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="33">
         <v>1104.8</v>
@@ -7670,9 +9049,9 @@
         <v>3.1672760763940593E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="33">
         <v>3998</v>
@@ -7691,9 +9070,9 @@
         <v>0.11681915697401873</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="33">
         <v>4590.1000000000004</v>
@@ -7712,9 +9091,9 @@
         <v>0.13119405701427839</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="27">
         <v>36.299999999999997</v>
@@ -7733,9 +9112,9 @@
         <v>1.0506113399844476E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="27">
         <v>43.8</v>
@@ -7754,9 +9133,9 @@
         <v>1.2298494950999047E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="27">
         <v>35.4</v>
@@ -7775,19 +9154,19 @@
         <v>1.0257937492761538E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7807,116 +9186,116 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
+      <c r="A1" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>62</v>
       </c>
       <c r="B5" s="13">
         <v>6.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="13">
         <v>7.67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="13">
         <v>7.83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="13">
         <v>4.62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="13">
         <v>5.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
-        <v>99</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A12" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A13" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A14" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48" t="s">
+      <c r="C15" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A17" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A18" s="20" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="B18" s="20">
         <v>10</v>
@@ -7925,15 +9304,15 @@
         <v>4</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A19" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="B19" s="21">
         <v>0.05</v>
@@ -7948,19 +9327,19 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A20" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A21" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A22" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="21">
         <v>0.13</v>
@@ -7975,9 +9354,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A23" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="21">
         <v>0.15</v>
@@ -7992,9 +9371,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A24" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="21">
         <v>0.15</v>
@@ -8009,14 +9388,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A25" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A26" s="20" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="B26" s="20">
         <v>33</v>
@@ -8029,9 +9408,9 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A27" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="20">
         <v>13.1</v>
@@ -8042,9 +9421,9 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A28" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="20">
         <v>15.5</v>
@@ -8057,9 +9436,9 @@
       </c>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A29" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="20">
         <v>15.5</v>
@@ -8072,9 +9451,9 @@
       </c>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A30" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="20">
         <v>19.2</v>
@@ -8085,9 +9464,9 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A31" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="22">
         <v>9.9750000000000005E-2</v>
@@ -8102,9 +9481,9 @@
         <v>9.9750000000000005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A32" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="20">
         <v>14.7</v>
@@ -8117,9 +9496,9 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="20">
         <v>14</v>
@@ -8132,9 +9511,9 @@
       </c>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A34" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="20">
         <v>15</v>
@@ -8147,9 +9526,9 @@
       </c>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A35" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="20">
         <v>13</v>
@@ -8162,9 +9541,9 @@
       </c>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A36" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="20">
         <v>4.49</v>
@@ -8179,9 +9558,9 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A37" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="20">
         <v>14.5</v>
@@ -8194,7 +9573,7 @@
       </c>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A38" s="20">
         <v>6.67</v>
       </c>
@@ -8205,12 +9584,12 @@
         <v>4.62</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A39" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="20">
         <v>6.2</v>
@@ -8221,12 +9600,12 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A40" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="C40" s="20">
         <v>9.1</v>
@@ -8234,12 +9613,12 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A41" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="20">
         <v>9.1</v>
@@ -8247,19 +9626,19 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A42" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A43" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+    <row r="44" spans="1:5" s="19" customFormat="1" ht="15">
+      <c r="A44" s="20" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="B44" s="20">
         <v>3</v>
@@ -8268,9 +9647,9 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A45" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="20">
         <v>11</v>
@@ -8281,9 +9660,9 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="19" customFormat="1" ht="15">
       <c r="A46" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="20">
         <v>3.5</v>
@@ -8317,23 +9696,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28">
       <c r="A2" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2014</v>
@@ -8417,9 +9796,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="28">
       <c r="A4" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="35">
         <v>2.3781590000000001</v>
@@ -8503,9 +9882,9 @@
         <v>2.3828659999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <f>C4/B4</f>
@@ -8612,49 +9991,49 @@
         <v>1.0056790509029674</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B9" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B11" s="36" t="s">
         <v>163</v>
-      </c>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8669,15 +10048,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="1" width="19.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28">
       <c r="B1" s="1">
         <v>2014</v>
       </c>
@@ -8760,28 +10139,28 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="5">
         <v>20.52</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28">
       <c r="A3" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="5">
         <f>B2/1000000</f>
         <v>2.052E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="53">
+    <row r="4" spans="1:28">
+      <c r="A4" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="52">
         <f>B3*A15</f>
         <v>2.269512E-5</v>
       </c>
@@ -8890,439 +10269,439 @@
         <v>2.127595679999999E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>109</v>
+    <row r="5" spans="1:28">
+      <c r="A5" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="52"/>
       <c r="B6" s="41">
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28">
       <c r="B7" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="B8" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+    <row r="12" spans="1:28">
+      <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="27"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28">
       <c r="A15" s="40">
         <v>1.1060000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="49" customFormat="1">
+      <c r="A18" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="49" customFormat="1">
+      <c r="A19" s="51" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52" t="s">
+    <row r="20" spans="1:37" s="49" customFormat="1">
+      <c r="A20" s="51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
+    <row r="21" spans="1:37" s="49" customFormat="1">
+      <c r="A21" s="51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="s">
+    <row r="22" spans="1:37" s="49" customFormat="1">
+      <c r="A22" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="49" customFormat="1">
+      <c r="A23" s="49" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="I23" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="J23" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="K23" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="L23" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="M23" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="N23" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="O23" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="P23" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="Q23" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="R23" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="50" t="s">
+      <c r="S23" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="T23" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="S23" s="50" t="s">
+      <c r="U23" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="V23" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="U23" s="50" t="s">
+      <c r="W23" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="X23" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="W23" s="50" t="s">
+      <c r="Y23" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="X23" s="50" t="s">
+      <c r="Z23" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="Y23" s="50" t="s">
+      <c r="AA23" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="Z23" s="50" t="s">
+      <c r="AB23" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="AA23" s="50" t="s">
+      <c r="AC23" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="AB23" s="50" t="s">
+      <c r="AD23" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="AC23" s="50" t="s">
+      <c r="AE23" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="AD23" s="50" t="s">
+      <c r="AF23" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="AE23" s="50" t="s">
+      <c r="AG23" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="AF23" s="50" t="s">
+      <c r="AH23" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="AG23" s="50" t="s">
+      <c r="AI23" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="AH23" s="50" t="s">
+      <c r="AJ23" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="AI23" s="50" t="s">
+      <c r="AK23" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="AJ23" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK23" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="50">
+    </row>
+    <row r="24" spans="1:37" s="49" customFormat="1">
+      <c r="A24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="49">
         <v>38.01</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <v>39.03</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="49">
         <v>39.5</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="49">
         <v>42.59</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="49">
         <v>35.82</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <v>38.94</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="49">
         <v>44.99</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="49">
         <v>45.99</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="49">
         <v>45.3</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="49">
         <v>44.39</v>
       </c>
-      <c r="L24" s="50">
+      <c r="L24" s="49">
         <v>37.909999999999997</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="49">
         <v>36.03</v>
       </c>
-      <c r="N24" s="50">
+      <c r="N24" s="49">
         <v>39.01</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="49">
         <v>40.32</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="49">
         <v>41.15</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="Q24" s="49">
         <v>42.29</v>
       </c>
-      <c r="R24" s="50">
+      <c r="R24" s="49">
         <v>42.93</v>
       </c>
-      <c r="S24" s="50">
+      <c r="S24" s="49">
         <v>43.59</v>
       </c>
-      <c r="T24" s="50">
+      <c r="T24" s="49">
         <v>43.48</v>
       </c>
-      <c r="U24" s="50">
+      <c r="U24" s="49">
         <v>43.38</v>
       </c>
-      <c r="V24" s="50">
+      <c r="V24" s="49">
         <v>43.41</v>
       </c>
-      <c r="W24" s="50">
+      <c r="W24" s="49">
         <v>43.37</v>
       </c>
-      <c r="X24" s="50">
+      <c r="X24" s="49">
         <v>43.25</v>
       </c>
-      <c r="Y24" s="50">
+      <c r="Y24" s="49">
         <v>43.09</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="49">
         <v>42.89</v>
       </c>
-      <c r="AA24" s="50">
+      <c r="AA24" s="49">
         <v>42.69</v>
       </c>
-      <c r="AB24" s="50">
+      <c r="AB24" s="49">
         <v>42.48</v>
       </c>
-      <c r="AC24" s="50">
+      <c r="AC24" s="49">
         <v>42.27</v>
       </c>
-      <c r="AD24" s="50">
+      <c r="AD24" s="49">
         <v>42.06</v>
       </c>
-      <c r="AE24" s="50">
+      <c r="AE24" s="49">
         <v>41.83</v>
       </c>
-      <c r="AF24" s="50">
+      <c r="AF24" s="49">
         <v>41.63</v>
       </c>
-      <c r="AG24" s="50">
+      <c r="AG24" s="49">
         <v>41.42</v>
       </c>
-      <c r="AH24" s="50">
+      <c r="AH24" s="49">
         <v>41.23</v>
       </c>
-      <c r="AI24" s="50">
+      <c r="AI24" s="49">
         <v>41.04</v>
       </c>
-      <c r="AJ24" s="50">
+      <c r="AJ24" s="49">
         <v>40.880000000000003</v>
       </c>
-      <c r="AK24" s="50">
+      <c r="AK24" s="49">
         <v>40.729999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="50">
+    <row r="25" spans="1:37" s="49" customFormat="1">
+      <c r="A25" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="49">
         <v>32.89</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <v>33.5</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="49">
         <v>33.590000000000003</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="49">
         <v>40.409999999999997</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="49">
         <v>29.32</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="49">
         <v>31.96</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="49">
         <v>38.14</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="49">
         <v>38.36</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="49">
         <v>38.47</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="49">
         <v>39.5</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>31.97</v>
       </c>
-      <c r="M25" s="50">
+      <c r="M25" s="49">
         <v>30.18</v>
       </c>
-      <c r="N25" s="50">
+      <c r="N25" s="49">
         <v>33.520000000000003</v>
       </c>
-      <c r="O25" s="50">
+      <c r="O25" s="49">
         <v>35.229999999999997</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="49">
         <v>36.159999999999997</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="Q25" s="49">
         <v>37.200000000000003</v>
       </c>
-      <c r="R25" s="50">
+      <c r="R25" s="49">
         <v>38.020000000000003</v>
       </c>
-      <c r="S25" s="50">
+      <c r="S25" s="49">
         <v>38.82</v>
       </c>
-      <c r="T25" s="50">
+      <c r="T25" s="49">
         <v>38.78</v>
       </c>
-      <c r="U25" s="50">
+      <c r="U25" s="49">
         <v>38.75</v>
       </c>
-      <c r="V25" s="50">
+      <c r="V25" s="49">
         <v>38.840000000000003</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="49">
         <v>38.86</v>
       </c>
-      <c r="X25" s="50">
+      <c r="X25" s="49">
         <v>38.81</v>
       </c>
-      <c r="Y25" s="50">
+      <c r="Y25" s="49">
         <v>38.71</v>
       </c>
-      <c r="Z25" s="50">
+      <c r="Z25" s="49">
         <v>38.57</v>
       </c>
-      <c r="AA25" s="50">
+      <c r="AA25" s="49">
         <v>38.43</v>
       </c>
-      <c r="AB25" s="50">
+      <c r="AB25" s="49">
         <v>38.29</v>
       </c>
-      <c r="AC25" s="50">
+      <c r="AC25" s="49">
         <v>38.15</v>
       </c>
-      <c r="AD25" s="50">
+      <c r="AD25" s="49">
         <v>38</v>
       </c>
-      <c r="AE25" s="50">
+      <c r="AE25" s="49">
         <v>37.83</v>
       </c>
-      <c r="AF25" s="50">
+      <c r="AF25" s="49">
         <v>37.69</v>
       </c>
-      <c r="AG25" s="50">
+      <c r="AG25" s="49">
         <v>37.53</v>
       </c>
-      <c r="AH25" s="50">
+      <c r="AH25" s="49">
         <v>37.39</v>
       </c>
-      <c r="AI25" s="50">
+      <c r="AI25" s="49">
         <v>37.25</v>
       </c>
-      <c r="AJ25" s="50">
+      <c r="AJ25" s="49">
         <v>37.14</v>
       </c>
-      <c r="AK25" s="50">
+      <c r="AK25" s="49">
         <v>37.03</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+    <row r="26" spans="1:37" s="49" customFormat="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="42">
         <f>L25/K25</f>
         <v>0.80936708860759488</v>
@@ -9452,14 +10831,16 @@
   </sheetPr>
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9572,7 +10953,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9721,9 +11102,9 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <f>About!$C$5+'Canada fuel price projections'!B34</f>
@@ -9731,146 +11112,146 @@
       </c>
       <c r="C3">
         <f>About!$C$5+'Canada fuel price projections'!C34</f>
-        <v>0.23422994395898694</v>
+        <v>0.23189954467893736</v>
       </c>
       <c r="D3">
         <f>About!$C$5+'Canada fuel price projections'!D34</f>
-        <v>0.20528805468503869</v>
+        <v>0.20202902517849033</v>
       </c>
       <c r="E3">
         <f>About!$C$5+'Canada fuel price projections'!E34</f>
-        <v>0.20096575612716439</v>
+        <v>0.19642263171680602</v>
       </c>
       <c r="F3">
         <f>About!$C$5+'Canada fuel price projections'!F34</f>
-        <v>0.19997094386201797</v>
+        <v>0.19406911414096706</v>
       </c>
       <c r="G3">
         <f>About!$C$5+'Canada fuel price projections'!G34</f>
-        <v>0.19882031824391266</v>
+        <v>0.19165016160141357</v>
       </c>
       <c r="H3">
         <f>About!$C$5+'Canada fuel price projections'!H34</f>
-        <v>0.19878063112957417</v>
+        <v>0.19027713993663856</v>
       </c>
       <c r="I3">
         <f>About!$C$5+'Canada fuel price projections'!I34</f>
-        <v>0.19880559197192577</v>
+        <v>0.18899080150920805</v>
       </c>
       <c r="J3">
         <f>About!$C$5+'Canada fuel price projections'!J34</f>
-        <v>0.19858695280569655</v>
+        <v>0.18752980774532263</v>
       </c>
       <c r="K3">
         <f>About!$C$5+'Canada fuel price projections'!K34</f>
-        <v>0.19883568127747053</v>
+        <v>0.18648624993888929</v>
       </c>
       <c r="L3">
         <f>About!$C$5+'Canada fuel price projections'!L34</f>
-        <v>0.19882210969848696</v>
+        <v>0.18525251139988308</v>
       </c>
       <c r="M3">
         <f>About!$C$5+'Canada fuel price projections'!M34</f>
-        <v>0.19869676299984668</v>
+        <v>0.18395940018134624</v>
       </c>
       <c r="N3">
         <f>About!$C$5+'Canada fuel price projections'!N34</f>
-        <v>0.19888380474837186</v>
+        <v>0.18293504416981979</v>
       </c>
       <c r="O3">
         <f>About!$C$5+'Canada fuel price projections'!O34</f>
-        <v>0.19904846669538784</v>
+        <v>0.18191354641631571</v>
       </c>
       <c r="P3">
         <f>About!$C$5+'Canada fuel price projections'!P34</f>
-        <v>0.19912397605149779</v>
+        <v>0.1808469994025064</v>
       </c>
       <c r="Q3">
         <f>About!$C$5+'Canada fuel price projections'!Q34</f>
-        <v>0.19909093124223021</v>
+        <v>0.17972547369872199</v>
       </c>
       <c r="R3">
         <f>About!$C$5+'Canada fuel price projections'!R34</f>
-        <v>0.19865629086518863</v>
+        <v>0.17834944824124566</v>
       </c>
       <c r="S3">
         <f>About!$C$5+'Canada fuel price projections'!S34</f>
-        <v>0.19820086339268836</v>
+        <v>0.17699606534183338</v>
       </c>
       <c r="T3">
         <f>About!$C$5+'Canada fuel price projections'!T34</f>
-        <v>0.19777365483416731</v>
+        <v>0.17569787663521735</v>
       </c>
       <c r="U3">
         <f>About!$C$5+'Canada fuel price projections'!U34</f>
-        <v>0.19733417404959447</v>
+        <v>0.17442621956072096</v>
       </c>
       <c r="V3">
         <f>About!$C$5+'Canada fuel price projections'!V34</f>
-        <v>0.19709109059619684</v>
+        <v>0.17331382993906325</v>
       </c>
       <c r="W3">
         <f>About!$C$5+'Canada fuel price projections'!W34</f>
-        <v>0.1966748343891791</v>
+        <v>0.17212086479607491</v>
       </c>
       <c r="X3">
         <f>About!$C$5+'Canada fuel price projections'!X34</f>
-        <v>0.19634156544445769</v>
+        <v>0.17101010250633703</v>
       </c>
       <c r="Y3">
         <f>About!$C$5+'Canada fuel price projections'!Y34</f>
-        <v>0.19587793184022559</v>
+        <v>0.16984982261186718</v>
       </c>
       <c r="Z3">
         <f>About!$C$5+'Canada fuel price projections'!Z34</f>
-        <v>0.19551153449436334</v>
+        <v>0.16877746241570465</v>
       </c>
       <c r="AA3">
         <f>About!$C$5+'Canada fuel price projections'!AA34</f>
-        <v>0.1951086699760427</v>
+        <v>0.1677119349776392</v>
       </c>
       <c r="AB3">
         <f>About!$C$5+'Canada fuel price projections'!AB34</f>
-        <v>0.19478261333732222</v>
+        <v>0.16671733330950256</v>
       </c>
       <c r="AC3">
         <f>About!$C$5+'Canada fuel price projections'!AC34</f>
-        <v>0.19442196266035544</v>
+        <v>0.16572902379055438</v>
       </c>
       <c r="AD3">
         <f>About!$C$5+'Canada fuel price projections'!AD34</f>
-        <v>0.19406522233232965</v>
+        <v>0.16476822367501501</v>
       </c>
       <c r="AE3">
         <f>About!$C$5+'Canada fuel price projections'!AE34</f>
-        <v>0.19371232909931962</v>
+        <v>0.16383408691423473</v>
       </c>
       <c r="AF3">
         <f>About!$C$5+'Canada fuel price projections'!AF34</f>
-        <v>0.19336322106434739</v>
+        <v>0.16292579714931107</v>
       </c>
       <c r="AG3">
         <f>About!$C$5+'Canada fuel price projections'!AG34</f>
-        <v>0.19301783765118827</v>
+        <v>0.16204256649355012</v>
       </c>
       <c r="AH3">
         <f>About!$C$5+'Canada fuel price projections'!AH34</f>
-        <v>0.19267611956933042</v>
+        <v>0.1611836343735801</v>
       </c>
       <c r="AI3">
         <f>About!$C$5+'Canada fuel price projections'!AI34</f>
-        <v>0.1923380087800434</v>
+        <v>0.16034826642583883</v>
       </c>
       <c r="AJ3">
         <f>About!$C$5+'Canada fuel price projections'!AJ34</f>
-        <v>0.19200344846351669</v>
+        <v>0.15953575344536564</v>
       </c>
       <c r="AK3">
         <f>About!$C$5+'Canada fuel price projections'!AK34</f>
-        <v>0.19167238298702716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.15874541038402104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9880,146 +11261,146 @@
       </c>
       <c r="C4">
         <f>About!$C$5+'Canada fuel price projections'!C35</f>
-        <v>0.18829431025302068</v>
+        <v>0.18703106180486251</v>
       </c>
       <c r="D4">
         <f>About!$C$5+'Canada fuel price projections'!D35</f>
-        <v>0.18266371485230207</v>
+        <v>0.180412643864128</v>
       </c>
       <c r="E4">
         <f>About!$C$5+'Canada fuel price projections'!E35</f>
-        <v>0.18097015579851905</v>
+        <v>0.17774018281814688</v>
       </c>
       <c r="F4">
         <f>About!$C$5+'Canada fuel price projections'!F35</f>
-        <v>0.17925130731235747</v>
+        <v>0.17513767498117533</v>
       </c>
       <c r="G4">
         <f>About!$C$5+'Canada fuel price projections'!G35</f>
-        <v>0.17788267100935953</v>
+        <v>0.17293955082580503</v>
       </c>
       <c r="H4">
         <f>About!$C$5+'Canada fuel price projections'!H35</f>
-        <v>0.17681672015591468</v>
+        <v>0.17108080172075305</v>
       </c>
       <c r="I4">
         <f>About!$C$5+'Canada fuel price projections'!I35</f>
-        <v>0.17613134865120034</v>
+        <v>0.16960868150490707</v>
       </c>
       <c r="J4">
         <f>About!$C$5+'Canada fuel price projections'!J35</f>
-        <v>0.17557492068294181</v>
+        <v>0.1682891734839071</v>
       </c>
       <c r="K4">
         <f>About!$C$5+'Canada fuel price projections'!K35</f>
-        <v>0.1753559816032923</v>
+        <v>0.16728519398769784</v>
       </c>
       <c r="L4">
         <f>About!$C$5+'Canada fuel price projections'!L35</f>
-        <v>0.17503137443559968</v>
+        <v>0.1662217979106643</v>
       </c>
       <c r="M4">
         <f>About!$C$5+'Canada fuel price projections'!M35</f>
-        <v>0.17481746307793908</v>
+        <v>0.16527385526094013</v>
       </c>
       <c r="N4">
         <f>About!$C$5+'Canada fuel price projections'!N35</f>
-        <v>0.1745002676958412</v>
+        <v>0.16427037072123118</v>
       </c>
       <c r="O4">
         <f>About!$C$5+'Canada fuel price projections'!O35</f>
-        <v>0.17429121284257112</v>
+        <v>0.16337500192634771</v>
       </c>
       <c r="P4">
         <f>About!$C$5+'Canada fuel price projections'!P35</f>
-        <v>0.17398117826217896</v>
+        <v>0.16242769448460265</v>
       </c>
       <c r="Q4">
         <f>About!$C$5+'Canada fuel price projections'!Q35</f>
-        <v>0.17377681638272621</v>
+        <v>0.16158168071658369</v>
       </c>
       <c r="R4">
         <f>About!$C$5+'Canada fuel price projections'!R35</f>
-        <v>0.17347370282561905</v>
+        <v>0.16068708085989936</v>
       </c>
       <c r="S4">
         <f>About!$C$5+'Canada fuel price projections'!S35</f>
-        <v>0.17317463121753457</v>
+        <v>0.15981882042065629</v>
       </c>
       <c r="T4">
         <f>About!$C$5+'Canada fuel price projections'!T35</f>
-        <v>0.17287952124626518</v>
+        <v>0.15897603357422968</v>
       </c>
       <c r="U4">
         <f>About!$C$5+'Canada fuel price projections'!U35</f>
-        <v>0.17258829471330683</v>
+        <v>0.15815788719215754</v>
       </c>
       <c r="V4">
         <f>About!$C$5+'Canada fuel price projections'!V35</f>
-        <v>0.17230087546477654</v>
+        <v>0.15736357939747472</v>
       </c>
       <c r="W4">
         <f>About!$C$5+'Canada fuel price projections'!W35</f>
-        <v>0.17211134108102072</v>
+        <v>0.15665212779442875</v>
       </c>
       <c r="X4">
         <f>About!$C$5+'Canada fuel price projections'!X35</f>
-        <v>0.17183010341969246</v>
+        <v>0.15590120620319858</v>
       </c>
       <c r="Y4">
         <f>About!$C$5+'Canada fuel price projections'!Y35</f>
-        <v>0.17155247946489385</v>
+        <v>0.15517196544471118</v>
       </c>
       <c r="Z4">
         <f>About!$C$5+'Canada fuel price projections'!Z35</f>
-        <v>0.17127840001085934</v>
+        <v>0.15446371260369296</v>
       </c>
       <c r="AA4">
         <f>About!$C$5+'Canada fuel price projections'!AA35</f>
-        <v>0.17100779760775192</v>
+        <v>0.15377577997009595</v>
       </c>
       <c r="AB4">
         <f>About!$C$5+'Canada fuel price projections'!AB35</f>
-        <v>0.17077012795421823</v>
+        <v>0.15312439680250126</v>
       </c>
       <c r="AC4">
         <f>About!$C$5+'Canada fuel price projections'!AC35</f>
-        <v>0.17051917989046361</v>
+        <v>0.15248206446782253</v>
       </c>
       <c r="AD4">
         <f>About!$C$5+'Canada fuel price projections'!AD35</f>
-        <v>0.17027120211202479</v>
+        <v>0.15185772632338609</v>
       </c>
       <c r="AE4">
         <f>About!$C$5+'Canada fuel price projections'!AE35</f>
-        <v>0.17002614219357914</v>
+        <v>0.15125083030735675</v>
       </c>
       <c r="AF4">
         <f>About!$C$5+'Canada fuel price projections'!AF35</f>
-        <v>0.16978394893632556</v>
+        <v>0.15066084341992725</v>
       </c>
       <c r="AG4">
         <f>About!$C$5+'Canada fuel price projections'!AG35</f>
-        <v>0.16954457233232417</v>
+        <v>0.15008725096566991</v>
       </c>
       <c r="AH4">
         <f>About!$C$5+'Canada fuel price projections'!AH35</f>
-        <v>0.16930796353007282</v>
+        <v>0.14952955583087432</v>
       </c>
       <c r="AI4">
         <f>About!$C$5+'Canada fuel price projections'!AI35</f>
-        <v>0.1690740748012706</v>
+        <v>0.14898727779400656</v>
       </c>
       <c r="AJ4">
         <f>About!$C$5+'Canada fuel price projections'!AJ35</f>
-        <v>0.16884285950872174</v>
+        <v>0.14845995286753655</v>
       </c>
       <c r="AK4">
         <f>About!$C$5+'Canada fuel price projections'!AK35</f>
-        <v>0.16861427207533314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.14794713266948695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10128,7 +11509,7 @@
         <v>0.12861778878634045</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AK17" si="1">TREND($R5:$AA5,$R$1:$AA$1,AB$1)</f>
+        <f t="shared" ref="AB5:AK16" si="1">TREND($R5:$AA5,$R$1:$AA$1,AB$1)</f>
         <v>0.12861778878634045</v>
       </c>
       <c r="AC5">
@@ -10168,7 +11549,7 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10291,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10414,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -10537,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -10686,7 +12067,7 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -10696,146 +12077,146 @@
       </c>
       <c r="C10">
         <f>About!$C$5+'Canada fuel price projections'!C36</f>
-        <v>0.28658000463423017</v>
+        <v>0.28293324010467613</v>
       </c>
       <c r="D10">
         <f>About!$C$5+'Canada fuel price projections'!D36</f>
-        <v>0.27986495275887202</v>
+        <v>0.27301073970234241</v>
       </c>
       <c r="E10">
         <f>About!$C$5+'Canada fuel price projections'!E36</f>
-        <v>0.27493501294466816</v>
+        <v>0.2651555337621182</v>
       </c>
       <c r="F10">
         <f>About!$C$5+'Canada fuel price projections'!F36</f>
-        <v>0.27265339042680259</v>
+        <v>0.26000253047079325</v>
       </c>
       <c r="G10">
         <f>About!$C$5+'Canada fuel price projections'!G36</f>
-        <v>0.26895012014733721</v>
+        <v>0.25377954330524505</v>
       </c>
       <c r="H10">
         <f>About!$C$5+'Canada fuel price projections'!H36</f>
-        <v>0.26590175974500663</v>
+        <v>0.24835325293130969</v>
       </c>
       <c r="I10">
         <f>About!$C$5+'Canada fuel price projections'!I36</f>
-        <v>0.26370100709388306</v>
+        <v>0.24383450595774669</v>
       </c>
       <c r="J10">
         <f>About!$C$5+'Canada fuel price projections'!J36</f>
-        <v>0.26182781012006862</v>
+        <v>0.23973887738493654</v>
       </c>
       <c r="K10">
         <f>About!$C$5+'Canada fuel price projections'!K36</f>
-        <v>0.26018580359073673</v>
+        <v>0.23596428558021226</v>
       </c>
       <c r="L10">
         <f>About!$C$5+'Canada fuel price projections'!L36</f>
-        <v>0.25854862694884256</v>
+        <v>0.23231605510943873</v>
       </c>
       <c r="M10">
         <f>About!$C$5+'Canada fuel price projections'!M36</f>
-        <v>0.25684890883753303</v>
+        <v>0.22873814709591223</v>
       </c>
       <c r="N10">
         <f>About!$C$5+'Canada fuel price projections'!N36</f>
-        <v>0.25515973979914403</v>
+        <v>0.22528395883525382</v>
       </c>
       <c r="O10">
         <f>About!$C$5+'Canada fuel price projections'!O36</f>
-        <v>0.25348202584622359</v>
+        <v>0.22194941977368987</v>
       </c>
       <c r="P10">
         <f>About!$C$5+'Canada fuel price projections'!P36</f>
-        <v>0.25175344065576183</v>
+        <v>0.21868572814267401</v>
       </c>
       <c r="Q10">
         <f>About!$C$5+'Canada fuel price projections'!Q36</f>
-        <v>0.25007206204001048</v>
+        <v>0.21555959489335288</v>
       </c>
       <c r="R10">
         <f>About!$C$5+'Canada fuel price projections'!R36</f>
-        <v>0.24930909820297625</v>
+        <v>0.21315579097849888</v>
       </c>
       <c r="S10">
         <f>About!$C$5+'Canada fuel price projections'!S36</f>
-        <v>0.24852571835108678</v>
+        <v>0.21080643858106524</v>
       </c>
       <c r="T10">
         <f>About!$C$5+'Canada fuel price projections'!T36</f>
-        <v>0.24775244239814187</v>
+        <v>0.20853008528719164</v>
       </c>
       <c r="U10">
         <f>About!$C$5+'Canada fuel price projections'!U36</f>
-        <v>0.2469890761191488</v>
+        <v>0.20632408714570211</v>
       </c>
       <c r="V10">
         <f>About!$C$5+'Canada fuel price projections'!V36</f>
-        <v>0.24620663545689078</v>
+        <v>0.20416811090232312</v>
       </c>
       <c r="W10">
         <f>About!$C$5+'Canada fuel price projections'!W36</f>
-        <v>0.24540606683582639</v>
+        <v>0.20206161973203737</v>
       </c>
       <c r="X10">
         <f>About!$C$5+'Canada fuel price projections'!X36</f>
-        <v>0.24461632536709577</v>
+        <v>0.20002060372770378</v>
       </c>
       <c r="Y10">
         <f>About!$C$5+'Canada fuel price projections'!Y36</f>
-        <v>0.24383719288106417</v>
+        <v>0.19804270201134</v>
       </c>
       <c r="Z10">
         <f>About!$C$5+'Canada fuel price projections'!Z36</f>
-        <v>0.24306845703054769</v>
+        <v>0.19612565554347799</v>
       </c>
       <c r="AA10">
         <f>About!$C$5+'Canada fuel price projections'!AA36</f>
-        <v>0.24228300609104386</v>
+        <v>0.19425243604352527</v>
       </c>
       <c r="AB10">
         <f>About!$C$5+'Canada fuel price projections'!AB36</f>
-        <v>0.24161095082835066</v>
+        <v>0.19249237014804954</v>
       </c>
       <c r="AC10">
         <f>About!$C$5+'Canada fuel price projections'!AC36</f>
-        <v>0.24088855474365695</v>
+        <v>0.19075333950403367</v>
       </c>
       <c r="AD10">
         <f>About!$C$5+'Canada fuel price projections'!AD36</f>
-        <v>0.24017533692993615</v>
+        <v>0.18906646317160836</v>
       </c>
       <c r="AE10">
         <f>About!$C$5+'Canada fuel price projections'!AE36</f>
-        <v>0.23947112357211847</v>
+        <v>0.18742995232838072</v>
       </c>
       <c r="AF10">
         <f>About!$C$5+'Canada fuel price projections'!AF36</f>
-        <v>0.23877574521647266</v>
+        <v>0.18584209065501067</v>
       </c>
       <c r="AG10">
         <f>About!$C$5+'Canada fuel price projections'!AG36</f>
-        <v>0.23808903663466585</v>
+        <v>0.18430123081752867</v>
       </c>
       <c r="AH10">
         <f>About!$C$5+'Canada fuel price projections'!AH36</f>
-        <v>0.23741083669287871</v>
+        <v>0.18280579115185655</v>
       </c>
       <c r="AI10">
         <f>About!$C$5+'Canada fuel price projections'!AI36</f>
-        <v>0.23674098822575176</v>
+        <v>0.18135425253705922</v>
       </c>
       <c r="AJ10">
         <f>About!$C$5+'Canada fuel price projections'!AJ36</f>
-        <v>0.2360793379149641</v>
+        <v>0.17994515544487943</v>
       </c>
       <c r="AK10">
         <f>About!$C$5+'Canada fuel price projections'!AK36</f>
-        <v>0.23542573617224055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.17857709715403269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -10845,146 +12226,146 @@
       </c>
       <c r="C11">
         <f>About!$C$5+'Canada fuel price projections'!C37</f>
-        <v>0.27563546425087992</v>
+        <v>0.27227271447670853</v>
       </c>
       <c r="D11">
         <f>About!$C$5+'Canada fuel price projections'!D37</f>
-        <v>0.26992983509718321</v>
+        <v>0.26357864292226951</v>
       </c>
       <c r="E11">
         <f>About!$C$5+'Canada fuel price projections'!E37</f>
-        <v>0.26580368376517283</v>
+        <v>0.25670271410901191</v>
       </c>
       <c r="F11">
         <f>About!$C$5+'Canada fuel price projections'!F37</f>
-        <v>0.26401821466296338</v>
+        <v>0.25220772911957812</v>
       </c>
       <c r="G11">
         <f>About!$C$5+'Canada fuel price projections'!G37</f>
-        <v>0.26090278627088925</v>
+        <v>0.2466922420443467</v>
       </c>
       <c r="H11">
         <f>About!$C$5+'Canada fuel price projections'!H37</f>
-        <v>0.25834982202741796</v>
+        <v>0.24186277506014431</v>
       </c>
       <c r="I11">
         <f>About!$C$5+'Canada fuel price projections'!I37</f>
-        <v>0.25648948644359987</v>
+        <v>0.23778557678949996</v>
       </c>
       <c r="J11">
         <f>About!$C$5+'Canada fuel price projections'!J37</f>
-        <v>0.2549368627403682</v>
+        <v>0.23409694803116743</v>
       </c>
       <c r="K11">
         <f>About!$C$5+'Canada fuel price projections'!K37</f>
-        <v>0.25359998294573399</v>
+        <v>0.23070028522856065</v>
       </c>
       <c r="L11">
         <f>About!$C$5+'Canada fuel price projections'!L37</f>
-        <v>0.25218617934402204</v>
+        <v>0.22735040654962685</v>
       </c>
       <c r="M11">
         <f>About!$C$5+'Canada fuel price projections'!M37</f>
-        <v>0.25073570641398923</v>
+        <v>0.22407846774475682</v>
       </c>
       <c r="N11">
         <f>About!$C$5+'Canada fuel price projections'!N37</f>
-        <v>0.24928555722422469</v>
+        <v>0.22091025387690011</v>
       </c>
       <c r="O11">
         <f>About!$C$5+'Canada fuel price projections'!O37</f>
-        <v>0.24780438766028934</v>
+        <v>0.21781928495456448</v>
       </c>
       <c r="P11">
         <f>About!$C$5+'Canada fuel price projections'!P37</f>
-        <v>0.24629571901845332</v>
+        <v>0.21480613433465345</v>
       </c>
       <c r="Q11">
         <f>About!$C$5+'Canada fuel price projections'!Q37</f>
-        <v>0.24479386909861636</v>
+        <v>0.21189262736453357</v>
       </c>
       <c r="R11">
         <f>About!$C$5+'Canada fuel price projections'!R37</f>
-        <v>0.24414879718099036</v>
+        <v>0.20965304029045834</v>
       </c>
       <c r="S11">
         <f>About!$C$5+'Canada fuel price projections'!S37</f>
-        <v>0.24348064649393558</v>
+        <v>0.20746011581397722</v>
       </c>
       <c r="T11">
         <f>About!$C$5+'Canada fuel price projections'!T37</f>
-        <v>0.24282017960328928</v>
+        <v>0.20533296877795865</v>
       </c>
       <c r="U11">
         <f>About!$C$5+'Canada fuel price projections'!U37</f>
-        <v>0.24219678066585706</v>
+        <v>0.20328804611890028</v>
       </c>
       <c r="V11">
         <f>About!$C$5+'Canada fuel price projections'!V37</f>
-        <v>0.24152177305276012</v>
+        <v>0.20126698188581266</v>
       </c>
       <c r="W11">
         <f>About!$C$5+'Canada fuel price projections'!W37</f>
-        <v>0.24082591863100278</v>
+        <v>0.1992889022629693</v>
       </c>
       <c r="X11">
         <f>About!$C$5+'Canada fuel price projections'!X37</f>
-        <v>0.24016705967531077</v>
+        <v>0.19738726644190838</v>
       </c>
       <c r="Y11">
         <f>About!$C$5+'Canada fuel price projections'!Y37</f>
-        <v>0.23948775368369765</v>
+        <v>0.19552568188479452</v>
       </c>
       <c r="Z11">
         <f>About!$C$5+'Canada fuel price projections'!Z37</f>
-        <v>0.23881667120597144</v>
+        <v>0.19371964355699017</v>
       </c>
       <c r="AA11">
         <f>About!$C$5+'Canada fuel price projections'!AA37</f>
-        <v>0.23812621159320613</v>
+        <v>0.19195203624073334</v>
       </c>
       <c r="AB11">
         <f>About!$C$5+'Canada fuel price projections'!AB37</f>
-        <v>0.23756555251418171</v>
+        <v>0.19030298651814037</v>
       </c>
       <c r="AC11">
         <f>About!$C$5+'Canada fuel price projections'!AC37</f>
-        <v>0.23694220357499313</v>
+        <v>0.18866439330910389</v>
       </c>
       <c r="AD11">
         <f>About!$C$5+'Canada fuel price projections'!AD37</f>
-        <v>0.23632594708728266</v>
+        <v>0.18707337275509503</v>
       </c>
       <c r="AE11">
         <f>About!$C$5+'Canada fuel price projections'!AE37</f>
-        <v>0.23571666268913594</v>
+        <v>0.18552835827932151</v>
       </c>
       <c r="AF11">
         <f>About!$C$5+'Canada fuel price projections'!AF37</f>
-        <v>0.23511423272677684</v>
+        <v>0.18402784389049226</v>
       </c>
       <c r="AG11">
         <f>About!$C$5+'Canada fuel price projections'!AG37</f>
-        <v>0.23451854217882628</v>
+        <v>0.18257038138478646</v>
       </c>
       <c r="AH11">
         <f>About!$C$5+'Canada fuel price projections'!AH37</f>
-        <v>0.23392947858309063</v>
+        <v>0.18115457770098628</v>
       </c>
       <c r="AI11">
         <f>About!$C$5+'Canada fuel price projections'!AI37</f>
-        <v>0.23334693196577841</v>
+        <v>0.17977909241904347</v>
       </c>
       <c r="AJ11">
         <f>About!$C$5+'Canada fuel price projections'!AJ37</f>
-        <v>0.23277079477305498</v>
+        <v>0.1784426353930568</v>
       </c>
       <c r="AK11">
         <f>About!$C$5+'Canada fuel price projections'!AK37</f>
-        <v>0.2322009618048429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.17714396451027711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -10994,146 +12375,146 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:AA12" si="2">C10</f>
-        <v>0.28658000463423017</v>
+        <v>0.28293324010467613</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>0.27986495275887202</v>
+        <v>0.27301073970234241</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.27493501294466816</v>
+        <v>0.2651555337621182</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.27265339042680259</v>
+        <v>0.26000253047079325</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0.26895012014733721</v>
+        <v>0.25377954330524505</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.26590175974500663</v>
+        <v>0.24835325293130969</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.26370100709388306</v>
+        <v>0.24383450595774669</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.26182781012006862</v>
+        <v>0.23973887738493654</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0.26018580359073673</v>
+        <v>0.23596428558021226</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>0.25854862694884256</v>
+        <v>0.23231605510943873</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>0.25684890883753303</v>
+        <v>0.22873814709591223</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.25515973979914403</v>
+        <v>0.22528395883525382</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>0.25348202584622359</v>
+        <v>0.22194941977368987</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.25175344065576183</v>
+        <v>0.21868572814267401</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0.25007206204001048</v>
+        <v>0.21555959489335288</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0.24930909820297625</v>
+        <v>0.21315579097849888</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>0.24852571835108678</v>
+        <v>0.21080643858106524</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>0.24775244239814187</v>
+        <v>0.20853008528719164</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>0.2469890761191488</v>
+        <v>0.20632408714570211</v>
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>0.24620663545689078</v>
+        <v>0.20416811090232312</v>
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>0.24540606683582639</v>
+        <v>0.20206161973203737</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>0.24461632536709577</v>
+        <v>0.20002060372770378</v>
       </c>
       <c r="Y12">
         <f t="shared" si="2"/>
-        <v>0.24383719288106417</v>
+        <v>0.19804270201134</v>
       </c>
       <c r="Z12">
         <f t="shared" si="2"/>
-        <v>0.24306845703054769</v>
+        <v>0.19612565554347799</v>
       </c>
       <c r="AA12">
         <f t="shared" si="2"/>
-        <v>0.24228300609104386</v>
+        <v>0.19425243604352527</v>
       </c>
       <c r="AB12">
         <f>About!$C$5+'Canada fuel price projections'!AB38</f>
-        <v>0.12913005641716405</v>
+        <v>0.12892067812555227</v>
       </c>
       <c r="AC12">
         <f>About!$C$5+'Canada fuel price projections'!AC38</f>
-        <v>0.12913205735099026</v>
+        <v>0.12891577771656323</v>
       </c>
       <c r="AD12">
         <f>About!$C$5+'Canada fuel price projections'!AD38</f>
-        <v>0.12913407397753637</v>
+        <v>0.12891096108358682</v>
       </c>
       <c r="AE12">
         <f>About!$C$5+'Canada fuel price projections'!AE38</f>
-        <v>0.12913610648213905</v>
+        <v>0.12890622676015009</v>
       </c>
       <c r="AF12">
         <f>About!$C$5+'Canada fuel price projections'!AF38</f>
-        <v>0.12913815505306506</v>
+        <v>0.12890157330598423</v>
       </c>
       <c r="AG12">
         <f>About!$C$5+'Canada fuel price projections'!AG38</f>
-        <v>0.12914021988156923</v>
+        <v>0.12889699930654999</v>
       </c>
       <c r="AH12">
         <f>About!$C$5+'Canada fuel price projections'!AH38</f>
-        <v>0.1291423011619543</v>
+        <v>0.12889250337257177</v>
       </c>
       <c r="AI12">
         <f>About!$C$5+'Canada fuel price projections'!AI38</f>
-        <v>0.12914439909163147</v>
+        <v>0.12888808413958036</v>
       </c>
       <c r="AJ12">
         <f>About!$C$5+'Canada fuel price projections'!AJ38</f>
-        <v>0.12914651387118317</v>
+        <v>0.12888374026746394</v>
       </c>
       <c r="AK12">
         <f>About!$C$5+'Canada fuel price projections'!AK38</f>
-        <v>0.12914864570442677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.12887947044002759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -11143,103 +12524,103 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:AA13" si="3">C11</f>
-        <v>0.27563546425087992</v>
+        <v>0.27227271447670853</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0.26992983509718321</v>
+        <v>0.26357864292226951</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0.26580368376517283</v>
+        <v>0.25670271410901191</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.26401821466296338</v>
+        <v>0.25220772911957812</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.26090278627088925</v>
+        <v>0.2466922420443467</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>0.25834982202741796</v>
+        <v>0.24186277506014431</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.25648948644359987</v>
+        <v>0.23778557678949996</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.2549368627403682</v>
+        <v>0.23409694803116743</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>0.25359998294573399</v>
+        <v>0.23070028522856065</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.25218617934402204</v>
+        <v>0.22735040654962685</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>0.25073570641398923</v>
+        <v>0.22407846774475682</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>0.24928555722422469</v>
+        <v>0.22091025387690011</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>0.24780438766028934</v>
+        <v>0.21781928495456448</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
-        <v>0.24629571901845332</v>
+        <v>0.21480613433465345</v>
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0.24479386909861636</v>
+        <v>0.21189262736453357</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>0.24414879718099036</v>
+        <v>0.20965304029045834</v>
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>0.24348064649393558</v>
+        <v>0.20746011581397722</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>0.24282017960328928</v>
+        <v>0.20533296877795865</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>0.24219678066585706</v>
+        <v>0.20328804611890028</v>
       </c>
       <c r="V13">
         <f t="shared" si="3"/>
-        <v>0.24152177305276012</v>
+        <v>0.20126698188581266</v>
       </c>
       <c r="W13">
         <f t="shared" si="3"/>
-        <v>0.24082591863100278</v>
+        <v>0.1992889022629693</v>
       </c>
       <c r="X13">
         <f t="shared" si="3"/>
-        <v>0.24016705967531077</v>
+        <v>0.19738726644190838</v>
       </c>
       <c r="Y13">
         <f t="shared" si="3"/>
-        <v>0.23948775368369765</v>
+        <v>0.19552568188479452</v>
       </c>
       <c r="Z13">
         <f t="shared" si="3"/>
-        <v>0.23881667120597144</v>
+        <v>0.19371964355699017</v>
       </c>
       <c r="AA13">
         <f t="shared" si="3"/>
-        <v>0.23812621159320613</v>
+        <v>0.19195203624073334</v>
       </c>
       <c r="AB13">
         <f>About!$C$5+'Canada fuel price projections'!AB39</f>
@@ -11282,7 +12663,7 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
@@ -11292,146 +12673,146 @@
       </c>
       <c r="C14">
         <f>About!$C$5+'Canada fuel price projections'!C38</f>
-        <v>0.14696047484530197</v>
+        <v>0.14658702904146839</v>
       </c>
       <c r="D14">
         <f>About!$C$5+'Canada fuel price projections'!D38</f>
-        <v>0.14510264343146054</v>
+        <v>0.14443951476093791</v>
       </c>
       <c r="E14">
         <f>About!$C$5+'Canada fuel price projections'!E38</f>
-        <v>0.1442899586222498</v>
+        <v>0.14335472737436175</v>
       </c>
       <c r="F14">
         <f>About!$C$5+'Canada fuel price projections'!F38</f>
-        <v>0.14388073358994524</v>
+        <v>0.14267918189007336</v>
       </c>
       <c r="G14">
         <f>About!$C$5+'Canada fuel price projections'!G38</f>
-        <v>0.14344769959450815</v>
+        <v>0.14200378060344859</v>
       </c>
       <c r="H14">
         <f>About!$C$5+'Canada fuel price projections'!H38</f>
-        <v>0.14312321457392313</v>
+        <v>0.14144606729257495</v>
       </c>
       <c r="I14">
         <f>About!$C$5+'Canada fuel price projections'!I38</f>
-        <v>0.14282004228084402</v>
+        <v>0.14092407904378912</v>
       </c>
       <c r="J14">
         <f>About!$C$5+'Canada fuel price projections'!J38</f>
-        <v>0.14283489959750847</v>
+        <v>0.14068757226777534</v>
       </c>
       <c r="K14">
         <f>About!$C$5+'Canada fuel price projections'!K38</f>
-        <v>0.14284606300067931</v>
+        <v>0.14045258556768067</v>
       </c>
       <c r="L14">
         <f>About!$C$5+'Canada fuel price projections'!L38</f>
-        <v>0.14281262526119395</v>
+        <v>0.14018596549073606</v>
       </c>
       <c r="M14">
         <f>About!$C$5+'Canada fuel price projections'!M38</f>
-        <v>0.14280521598446522</v>
+        <v>0.13994608021057497</v>
       </c>
       <c r="N14">
         <f>About!$C$5+'Canada fuel price projections'!N38</f>
-        <v>0.14282375369805847</v>
+        <v>0.13973145802062237</v>
       </c>
       <c r="O14">
         <f>About!$C$5+'Canada fuel price projections'!O38</f>
-        <v>0.14286097483759089</v>
+        <v>0.13953520102815267</v>
       </c>
       <c r="P14">
         <f>About!$C$5+'Canada fuel price projections'!P38</f>
-        <v>0.14291341331777663</v>
+        <v>0.139353760613044</v>
       </c>
       <c r="Q14">
         <f>About!$C$5+'Canada fuel price projections'!Q38</f>
-        <v>0.14296623934543867</v>
+        <v>0.13917550768193676</v>
       </c>
       <c r="R14">
         <f>About!$C$5+'Canada fuel price projections'!R38</f>
-        <v>0.14301945723277604</v>
+        <v>0.13900038396704836</v>
       </c>
       <c r="S14">
         <f>About!$C$5+'Canada fuel price projections'!S38</f>
-        <v>0.14307307135620104</v>
+        <v>0.13882833231996602</v>
       </c>
       <c r="T14">
         <f>About!$C$5+'Canada fuel price projections'!T38</f>
-        <v>0.14313095980840354</v>
+        <v>0.13866196573248521</v>
       </c>
       <c r="U14">
         <f>About!$C$5+'Canada fuel price projections'!U38</f>
-        <v>0.14319712977386759</v>
+        <v>0.13850376723015576</v>
       </c>
       <c r="V14">
         <f>About!$C$5+'Canada fuel price projections'!V38</f>
-        <v>0.14325207744959292</v>
+        <v>0.13834046235474079</v>
       </c>
       <c r="W14">
         <f>About!$C$5+'Canada fuel price projections'!W38</f>
-        <v>0.14331538414830408</v>
+        <v>0.13818515835567058</v>
       </c>
       <c r="X14">
         <f>About!$C$5+'Canada fuel price projections'!X38</f>
-        <v>0.14337122851746445</v>
+        <v>0.1380274475896569</v>
       </c>
       <c r="Y14">
         <f>About!$C$5+'Canada fuel price projections'!Y38</f>
-        <v>0.14342749887304795</v>
+        <v>0.13787249134727464</v>
       </c>
       <c r="Z14">
         <f>About!$C$5+'Canada fuel price projections'!Z38</f>
-        <v>0.14347201332251003</v>
+        <v>0.1377128202318719</v>
       </c>
       <c r="AA14">
         <f>About!$C$5+'Canada fuel price projections'!AA38</f>
-        <v>0.14351679617833252</v>
+        <v>0.13755600742200647</v>
       </c>
       <c r="AB14">
         <f>About!$C$5+'Canada fuel price projections'!AB38</f>
-        <v>0.12913005641716405</v>
+        <v>0.12892067812555227</v>
       </c>
       <c r="AC14">
         <f>About!$C$5+'Canada fuel price projections'!AC38</f>
-        <v>0.12913205735099026</v>
+        <v>0.12891577771656323</v>
       </c>
       <c r="AD14">
         <f>About!$C$5+'Canada fuel price projections'!AD38</f>
-        <v>0.12913407397753637</v>
+        <v>0.12891096108358682</v>
       </c>
       <c r="AE14">
         <f>About!$C$5+'Canada fuel price projections'!AE38</f>
-        <v>0.12913610648213905</v>
+        <v>0.12890622676015009</v>
       </c>
       <c r="AF14">
         <f>About!$C$5+'Canada fuel price projections'!AF38</f>
-        <v>0.12913815505306506</v>
+        <v>0.12890157330598423</v>
       </c>
       <c r="AG14">
         <f>About!$C$5+'Canada fuel price projections'!AG38</f>
-        <v>0.12914021988156923</v>
+        <v>0.12889699930654999</v>
       </c>
       <c r="AH14">
         <f>About!$C$5+'Canada fuel price projections'!AH38</f>
-        <v>0.1291423011619543</v>
+        <v>0.12889250337257177</v>
       </c>
       <c r="AI14">
         <f>About!$C$5+'Canada fuel price projections'!AI38</f>
-        <v>0.12914439909163147</v>
+        <v>0.12888808413958036</v>
       </c>
       <c r="AJ14">
         <f>About!$C$5+'Canada fuel price projections'!AJ38</f>
-        <v>0.12914651387118317</v>
+        <v>0.12888374026746394</v>
       </c>
       <c r="AK14">
         <f>About!$C$5+'Canada fuel price projections'!AK38</f>
-        <v>0.12914864570442677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.12887947044002759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -11580,7 +12961,7 @@
         <v>0.12861778878634045</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -11703,156 +13084,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37">
       <c r="A17" s="16" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="B17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f>B4</f>
+        <v>0.19393239535898127</v>
       </c>
       <c r="C17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" ref="C17:AK17" si="4">C4</f>
+        <v>0.18703106180486251</v>
       </c>
       <c r="D17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.180412643864128</v>
       </c>
       <c r="E17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.17774018281814688</v>
       </c>
       <c r="F17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.17513767498117533</v>
       </c>
       <c r="G17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.17293955082580503</v>
       </c>
       <c r="H17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.17108080172075305</v>
       </c>
       <c r="I17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16960868150490707</v>
       </c>
       <c r="J17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.1682891734839071</v>
       </c>
       <c r="K17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16728519398769784</v>
       </c>
       <c r="L17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.1662217979106643</v>
       </c>
       <c r="M17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16527385526094013</v>
       </c>
       <c r="N17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16427037072123118</v>
       </c>
       <c r="O17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16337500192634771</v>
       </c>
       <c r="P17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16242769448460265</v>
       </c>
       <c r="Q17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16158168071658369</v>
       </c>
       <c r="R17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.16068708085989936</v>
       </c>
       <c r="S17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15981882042065629</v>
       </c>
       <c r="T17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15897603357422968</v>
       </c>
       <c r="U17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15815788719215754</v>
       </c>
       <c r="V17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15736357939747472</v>
       </c>
       <c r="W17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15665212779442875</v>
       </c>
       <c r="X17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15590120620319858</v>
       </c>
       <c r="Y17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15517196544471118</v>
       </c>
       <c r="Z17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15446371260369296</v>
       </c>
       <c r="AA17">
-        <f>About!$C$5</f>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15377577997009595</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15312439680250126</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15248206446782253</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15185772632338609</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15125083030735675</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15066084341992725</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.15008725096566991</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.14952955583087432</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.14898727779400656</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
+        <f t="shared" si="4"/>
+        <v>0.14845995286753655</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="1"/>
-        <v>0.12861778878634045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>0.14794713266948695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="15"/>
     </row>
   </sheetData>
